--- a/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
+++ b/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5794" uniqueCount="2713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="2713">
   <si>
     <t>A</t>
   </si>
@@ -10717,7 +10717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10727,10 +10727,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="C89" sqref="C89"/>
-      <selection pane="topRight" activeCell="AB259" sqref="AB259"/>
+      <selection pane="topRight" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14468,7 +14468,7 @@
         <v>779</v>
       </c>
       <c r="AB37" s="55" t="s">
-        <v>1950</v>
+        <v>1925</v>
       </c>
       <c r="AC37" s="55" t="s">
         <v>1923</v>
@@ -21868,7 +21868,7 @@
       <c r="BK111" s="62"/>
       <c r="BL111" s="42"/>
     </row>
-    <row r="112" spans="1:64" s="1" customFormat="1" ht="25.5">
+    <row r="112" spans="1:64" s="1" customFormat="1" ht="45">
       <c r="A112" s="10"/>
       <c r="B112" s="3"/>
       <c r="C112" s="37"/>
@@ -21887,7 +21887,9 @@
       <c r="J112" s="40" t="s">
         <v>1070</v>
       </c>
-      <c r="K112" s="14"/>
+      <c r="K112" s="14" t="s">
+        <v>775</v>
+      </c>
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
       <c r="N112" s="14"/>

--- a/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
+++ b/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
@@ -10730,7 +10730,7 @@
     <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="C89" sqref="C89"/>
-      <selection pane="topRight" activeCell="I109" sqref="I109"/>
+      <selection pane="topRight" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
+++ b/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
@@ -8146,9 +8146,6 @@
     <t>Assistant Director, Molecular Hematopathology;Assistant Director, Molecular Hematopathology</t>
   </si>
   <si>
-    <t>Professor of Pathology and Laboratory Medicine;Professor of Pathology and Laboratory Medicine;Professor of Pathology and Laboratory Medicine</t>
-  </si>
-  <si>
     <t>Director, Cytogenetics;Director, Cytogenetics</t>
   </si>
   <si>
@@ -8171,6 +8168,9 @@
   </si>
   <si>
     <t>Genitourinary Pathology;Genitourinary Pathology</t>
+  </si>
+  <si>
+    <t>Professor of Pathology and Laboratory Medicine;Professor of Pathology and Laboratory Medicine</t>
   </si>
 </sst>
 </file>
@@ -10717,7 +10717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10727,10 +10727,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection activeCell="C89" sqref="C89"/>
-      <selection pane="topRight" activeCell="I110" sqref="I110"/>
+      <selection pane="topRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14459,7 +14459,7 @@
         <v>1918</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>2704</v>
+        <v>2712</v>
       </c>
       <c r="Z37" s="5" t="s">
         <v>1919</v>
@@ -29544,16 +29544,16 @@
         <v>1667</v>
       </c>
       <c r="I187" s="43" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="J187" s="54" t="s">
         <v>1915</v>
       </c>
       <c r="K187" s="5" t="s">
+        <v>2705</v>
+      </c>
+      <c r="L187" s="5" t="s">
         <v>2706</v>
-      </c>
-      <c r="L187" s="5" t="s">
-        <v>2707</v>
       </c>
       <c r="M187" s="5" t="s">
         <v>855</v>
@@ -35946,16 +35946,16 @@
         <v>1868</v>
       </c>
       <c r="J249" s="14" t="s">
+        <v>2707</v>
+      </c>
+      <c r="K249" s="14" t="s">
+        <v>2705</v>
+      </c>
+      <c r="L249" s="14" t="s">
+        <v>2706</v>
+      </c>
+      <c r="M249" s="14" t="s">
         <v>2708</v>
-      </c>
-      <c r="K249" s="14" t="s">
-        <v>2706</v>
-      </c>
-      <c r="L249" s="14" t="s">
-        <v>2707</v>
-      </c>
-      <c r="M249" s="14" t="s">
-        <v>2709</v>
       </c>
       <c r="N249" s="14"/>
       <c r="O249" s="14"/>
@@ -37074,16 +37074,16 @@
         <v>963</v>
       </c>
       <c r="AB259" s="42" t="s">
+        <v>2709</v>
+      </c>
+      <c r="AC259" s="42" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AD259" s="42" t="s">
         <v>2710</v>
       </c>
-      <c r="AC259" s="42" t="s">
-        <v>2706</v>
-      </c>
-      <c r="AD259" s="42" t="s">
+      <c r="AE259" s="42" t="s">
         <v>2711</v>
-      </c>
-      <c r="AE259" s="42" t="s">
-        <v>2712</v>
       </c>
       <c r="AF259" s="5"/>
       <c r="AG259" s="5"/>

--- a/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
+++ b/Scanorders2/src/Oleg/UserdirectoryBundle/Util/UsersFullNew.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="51195" windowHeight="24240"/>
+    <workbookView xWindow="0" yWindow="-12" windowWidth="51192" windowHeight="24240"/>
   </bookViews>
   <sheets>
     <sheet name="owssvr.dll" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795" uniqueCount="2713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5796" uniqueCount="2715">
   <si>
     <t>A</t>
   </si>
@@ -7123,9 +7123,6 @@
   </si>
   <si>
     <t>Molecular Pathology Laboratory; Molecular Hematopathology</t>
-  </si>
-  <si>
-    <t>Director, Molecular and Genomic Pathology</t>
   </si>
   <si>
     <t>Sanchez</t>
@@ -8171,6 +8168,15 @@
   </si>
   <si>
     <t>Professor of Pathology and Laboratory Medicine;Professor of Pathology and Laboratory Medicine</t>
+  </si>
+  <si>
+    <t>Pathology and Laboratory Medicine; Healthcare Policy and Research</t>
+  </si>
+  <si>
+    <t>Pathology Informatics; Health Informatics</t>
+  </si>
+  <si>
+    <t>Director, Molecular and Genomic Pathology; Director, Molecular and Genomic Pathology</t>
   </si>
 </sst>
 </file>
@@ -10727,82 +10733,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="X1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="C89" sqref="C89"/>
-      <selection pane="topRight" activeCell="Y37" sqref="Y37"/>
+      <selection pane="topRight" activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="16" customWidth="1"/>
     <col min="9" max="9" width="48" style="50" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="33.85546875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="43.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" style="16" customWidth="1"/>
-    <col min="16" max="16" width="42.42578125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" style="51" customWidth="1"/>
-    <col min="18" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="31.88671875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" style="16" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="42.44140625" style="16" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" style="51" customWidth="1"/>
+    <col min="18" max="19" width="13.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="16" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" style="16" customWidth="1"/>
-    <col min="25" max="25" width="44.85546875" style="50" customWidth="1"/>
-    <col min="26" max="26" width="44.85546875" style="16" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="16" customWidth="1"/>
-    <col min="28" max="31" width="37.42578125" style="16" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="16" customWidth="1"/>
+    <col min="23" max="23" width="15.88671875" style="16" customWidth="1"/>
+    <col min="24" max="24" width="17.6640625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="44.88671875" style="50" customWidth="1"/>
+    <col min="26" max="26" width="44.88671875" style="16" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" style="16" customWidth="1"/>
+    <col min="28" max="31" width="37.44140625" style="16" customWidth="1"/>
     <col min="32" max="32" width="17" style="16" customWidth="1"/>
-    <col min="33" max="33" width="21.85546875" style="16" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="16" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.140625" style="16" customWidth="1"/>
+    <col min="33" max="33" width="21.88671875" style="16" customWidth="1"/>
+    <col min="34" max="34" width="14.44140625" style="16" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.109375" style="16" customWidth="1"/>
     <col min="38" max="38" width="14" style="16" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16" style="16" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" style="16" customWidth="1"/>
-    <col min="43" max="43" width="21.85546875" style="16" customWidth="1"/>
-    <col min="44" max="44" width="30.140625" style="16" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" style="16" customWidth="1"/>
-    <col min="46" max="46" width="26.7109375" style="16" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" customWidth="1"/>
-    <col min="53" max="53" width="20.28515625" customWidth="1"/>
-    <col min="54" max="54" width="34.140625" style="16" customWidth="1"/>
-    <col min="55" max="55" width="11.85546875" style="16" customWidth="1"/>
-    <col min="56" max="57" width="8.85546875" style="16"/>
-    <col min="58" max="58" width="15.28515625" style="16" customWidth="1"/>
+    <col min="40" max="40" width="17.33203125" style="16" customWidth="1"/>
+    <col min="43" max="43" width="21.88671875" style="16" customWidth="1"/>
+    <col min="44" max="44" width="30.109375" style="16" customWidth="1"/>
+    <col min="45" max="45" width="21.88671875" style="16" customWidth="1"/>
+    <col min="46" max="46" width="26.6640625" style="16" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" customWidth="1"/>
+    <col min="53" max="53" width="20.33203125" customWidth="1"/>
+    <col min="54" max="54" width="34.109375" style="16" customWidth="1"/>
+    <col min="55" max="55" width="11.88671875" style="16" customWidth="1"/>
+    <col min="56" max="57" width="8.88671875" style="16"/>
+    <col min="58" max="58" width="15.33203125" style="16" customWidth="1"/>
     <col min="59" max="59" width="25" style="16" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.140625" style="16" customWidth="1"/>
-    <col min="61" max="61" width="23.140625" style="16" customWidth="1"/>
-    <col min="62" max="62" width="31.140625" style="16" customWidth="1"/>
-    <col min="63" max="63" width="23.140625" style="16" customWidth="1"/>
-    <col min="64" max="64" width="18.7109375" customWidth="1"/>
-    <col min="65" max="66" width="21.85546875" style="16" customWidth="1"/>
+    <col min="60" max="60" width="24.109375" style="16" customWidth="1"/>
+    <col min="61" max="61" width="23.109375" style="16" customWidth="1"/>
+    <col min="62" max="62" width="31.109375" style="16" customWidth="1"/>
+    <col min="63" max="63" width="23.109375" style="16" customWidth="1"/>
+    <col min="64" max="64" width="18.6640625" customWidth="1"/>
+    <col min="65" max="66" width="21.88671875" style="16" customWidth="1"/>
     <col min="67" max="67" width="26" style="16" customWidth="1"/>
-    <col min="68" max="69" width="16.28515625" style="16" customWidth="1"/>
-    <col min="70" max="70" width="18.28515625" style="32" customWidth="1"/>
-    <col min="71" max="71" width="23.85546875" style="32" customWidth="1"/>
-    <col min="72" max="72" width="34.140625" style="32" customWidth="1"/>
-    <col min="73" max="73" width="17.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="39.28515625" style="15" customWidth="1"/>
-    <col min="75" max="75" width="8.85546875" style="15"/>
+    <col min="68" max="69" width="16.33203125" style="16" customWidth="1"/>
+    <col min="70" max="70" width="18.33203125" style="32" customWidth="1"/>
+    <col min="71" max="71" width="23.88671875" style="32" customWidth="1"/>
+    <col min="72" max="72" width="34.109375" style="32" customWidth="1"/>
+    <col min="73" max="73" width="17.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="39.33203125" style="15" customWidth="1"/>
+    <col min="75" max="75" width="8.88671875" style="15"/>
     <col min="76" max="76" width="23" style="15" customWidth="1"/>
-    <col min="77" max="80" width="8.85546875" style="15"/>
-    <col min="81" max="81" width="21.42578125" style="15" customWidth="1"/>
-    <col min="82" max="16384" width="8.85546875" style="15"/>
+    <col min="77" max="80" width="8.88671875" style="15"/>
+    <col min="81" max="81" width="21.44140625" style="15" customWidth="1"/>
+    <col min="82" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="1" spans="1:64" s="1" customFormat="1" ht="86.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10996,7 +11002,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="2" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="37"/>
@@ -11076,7 +11082,7 @@
       <c r="BK2" s="62"/>
       <c r="BL2" s="42"/>
     </row>
-    <row r="3" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="3" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A3" s="10"/>
       <c r="B3" s="3"/>
       <c r="C3" s="37"/>
@@ -11132,10 +11138,10 @@
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
       <c r="AM3" s="14" t="s">
+        <v>2464</v>
+      </c>
+      <c r="AN3" s="14" t="s">
         <v>2465</v>
-      </c>
-      <c r="AN3" s="14" t="s">
-        <v>2466</v>
       </c>
       <c r="AO3" s="42"/>
       <c r="AP3" s="42"/>
@@ -11162,7 +11168,7 @@
       <c r="BK3" s="62"/>
       <c r="BL3" s="42"/>
     </row>
-    <row r="4" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="4" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A4" s="7"/>
       <c r="B4" s="2"/>
       <c r="C4" s="13" t="s">
@@ -11252,7 +11258,7 @@
       <c r="BK4" s="33"/>
       <c r="BL4" s="33"/>
     </row>
-    <row r="5" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="5" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A5" s="7" t="b">
         <v>0</v>
       </c>
@@ -11352,7 +11358,7 @@
       <c r="BK5" s="33"/>
       <c r="BL5" s="33"/>
     </row>
-    <row r="6" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="6" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A6" s="7" t="b">
         <v>0</v>
       </c>
@@ -11448,7 +11454,7 @@
       <c r="BK6" s="33"/>
       <c r="BL6" s="33"/>
     </row>
-    <row r="7" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="7" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="37"/>
@@ -11534,7 +11540,7 @@
       <c r="BK7" s="62"/>
       <c r="BL7" s="42"/>
     </row>
-    <row r="8" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="8" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="37"/>
@@ -11598,10 +11604,10 @@
         <v>275</v>
       </c>
       <c r="AM8" s="14" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AN8" s="14" t="s">
         <v>2467</v>
-      </c>
-      <c r="AN8" s="14" t="s">
-        <v>2468</v>
       </c>
       <c r="AO8" s="14"/>
       <c r="AP8" s="14"/>
@@ -11628,7 +11634,7 @@
       <c r="BK8" s="33"/>
       <c r="BL8" s="33"/>
     </row>
-    <row r="9" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="9" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A9" s="7"/>
       <c r="B9" s="2"/>
       <c r="C9" s="13" t="s">
@@ -11718,7 +11724,7 @@
       <c r="BK9" s="33"/>
       <c r="BL9" s="33"/>
     </row>
-    <row r="10" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="10" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="37"/>
@@ -11802,7 +11808,7 @@
       <c r="BK10" s="33"/>
       <c r="BL10" s="33"/>
     </row>
-    <row r="11" spans="1:64" s="1" customFormat="1" ht="105">
+    <row r="11" spans="1:64" s="1" customFormat="1" ht="86.4">
       <c r="A11" s="7" t="b">
         <v>0</v>
       </c>
@@ -11826,7 +11832,7 @@
         <v>1667</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>1915</v>
@@ -11865,7 +11871,7 @@
         <v>1936</v>
       </c>
       <c r="Y11" s="52" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="Z11" s="20" t="s">
         <v>1921</v>
@@ -11957,7 +11963,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="12" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="12" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="37"/>
@@ -12047,7 +12053,7 @@
       <c r="BK12" s="33"/>
       <c r="BL12" s="33"/>
     </row>
-    <row r="13" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="13" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A13" s="7" t="b">
         <v>0</v>
       </c>
@@ -12153,7 +12159,7 @@
       <c r="BK13" s="33"/>
       <c r="BL13" s="33"/>
     </row>
-    <row r="14" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="14" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A14" s="7" t="b">
         <v>1</v>
       </c>
@@ -12253,7 +12259,7 @@
       <c r="BK14" s="33"/>
       <c r="BL14" s="33"/>
     </row>
-    <row r="15" spans="1:64" s="1" customFormat="1" ht="180">
+    <row r="15" spans="1:64" s="1" customFormat="1" ht="172.8">
       <c r="A15" s="7" t="b">
         <v>0</v>
       </c>
@@ -12316,7 +12322,7 @@
         <v>1956</v>
       </c>
       <c r="Y15" s="46" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="Z15" s="5" t="s">
         <v>1921</v>
@@ -12408,7 +12414,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="16" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="16" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="37" t="s">
@@ -12500,7 +12506,7 @@
       <c r="BK16" s="33"/>
       <c r="BL16" s="33"/>
     </row>
-    <row r="17" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="17" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="37"/>
@@ -12560,10 +12566,10 @@
       </c>
       <c r="AL17" s="14"/>
       <c r="AM17" s="14" t="s">
+        <v>2468</v>
+      </c>
+      <c r="AN17" s="14" t="s">
         <v>2469</v>
-      </c>
-      <c r="AN17" s="14" t="s">
-        <v>2470</v>
       </c>
       <c r="AO17" s="42"/>
       <c r="AP17" s="42"/>
@@ -12590,7 +12596,7 @@
       <c r="BK17" s="62"/>
       <c r="BL17" s="42"/>
     </row>
-    <row r="18" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="18" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A18" s="7" t="b">
         <v>0</v>
       </c>
@@ -12682,7 +12688,7 @@
       <c r="BK18" s="33"/>
       <c r="BL18" s="33"/>
     </row>
-    <row r="19" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="19" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A19" s="7" t="b">
         <v>0</v>
       </c>
@@ -12796,7 +12802,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="20" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="20" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="37" t="s">
@@ -12854,10 +12860,10 @@
         <v>645</v>
       </c>
       <c r="AM20" s="14" t="s">
+        <v>2470</v>
+      </c>
+      <c r="AN20" s="14" t="s">
         <v>2471</v>
-      </c>
-      <c r="AN20" s="14" t="s">
-        <v>2472</v>
       </c>
       <c r="AO20" s="14"/>
       <c r="AP20" s="14"/>
@@ -12884,7 +12890,7 @@
       <c r="BK20" s="33"/>
       <c r="BL20" s="33"/>
     </row>
-    <row r="21" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="21" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
       <c r="C21" s="13" t="s">
@@ -12976,17 +12982,17 @@
       <c r="BK21" s="33"/>
       <c r="BL21" s="33"/>
     </row>
-    <row r="22" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="22" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
       <c r="C22" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>2367</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>2369</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>2368</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
@@ -12994,7 +13000,7 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="67" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="J22" s="42" t="s">
         <v>1070</v>
@@ -13012,7 +13018,7 @@
       </c>
       <c r="P22" s="31"/>
       <c r="Q22" s="48" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="R22" s="14" t="s">
         <v>1070</v>
@@ -13028,7 +13034,7 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="48" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="Z22" s="17" t="s">
         <v>1919</v>
@@ -13047,21 +13053,21 @@
       <c r="AF22" s="17"/>
       <c r="AG22" s="17"/>
       <c r="AH22" s="17" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AI22" s="17"/>
       <c r="AJ22" s="17" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="AK22" s="17"/>
       <c r="AL22" s="17" t="s">
         <v>98</v>
       </c>
       <c r="AM22" s="21" t="s">
+        <v>2374</v>
+      </c>
+      <c r="AN22" s="17" t="s">
         <v>2375</v>
-      </c>
-      <c r="AN22" s="17" t="s">
-        <v>2376</v>
       </c>
       <c r="AO22" s="17"/>
       <c r="AP22" s="17"/>
@@ -13090,7 +13096,7 @@
       <c r="BK22" s="33"/>
       <c r="BL22" s="33"/>
     </row>
-    <row r="23" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="23" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="37"/>
@@ -13150,10 +13156,10 @@
       </c>
       <c r="AL23" s="14"/>
       <c r="AM23" s="14" t="s">
+        <v>2472</v>
+      </c>
+      <c r="AN23" s="14" t="s">
         <v>2473</v>
-      </c>
-      <c r="AN23" s="14" t="s">
-        <v>2474</v>
       </c>
       <c r="AO23" s="42"/>
       <c r="AP23" s="42"/>
@@ -13180,7 +13186,7 @@
       <c r="BK23" s="62"/>
       <c r="BL23" s="42"/>
     </row>
-    <row r="24" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="24" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A24" s="7" t="b">
         <v>0</v>
       </c>
@@ -13207,7 +13213,7 @@
         <v>1923</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -13270,7 +13276,7 @@
       <c r="BK24" s="33"/>
       <c r="BL24" s="33"/>
     </row>
-    <row r="25" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="25" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="C25" s="37"/>
@@ -13328,10 +13334,10 @@
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
       <c r="AM25" s="14" t="s">
+        <v>2474</v>
+      </c>
+      <c r="AN25" s="14" t="s">
         <v>2475</v>
-      </c>
-      <c r="AN25" s="14" t="s">
-        <v>2476</v>
       </c>
       <c r="AO25" s="42"/>
       <c r="AP25" s="42"/>
@@ -13358,7 +13364,7 @@
       <c r="BK25" s="62"/>
       <c r="BL25" s="42"/>
     </row>
-    <row r="26" spans="1:64" s="1" customFormat="1" ht="75">
+    <row r="26" spans="1:64" s="1" customFormat="1" ht="72">
       <c r="A26" s="7" t="b">
         <v>0</v>
       </c>
@@ -13398,7 +13404,7 @@
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="46"/>
-      <c r="R26" s="5"/>
+      <c r="R26" s="14"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -13414,13 +13420,15 @@
       <c r="AA26" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="AB26" s="42" t="s">
-        <v>1070</v>
+      <c r="AB26" s="14" t="s">
+        <v>1925</v>
       </c>
       <c r="AC26" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="AD26" s="5"/>
+        <v>2712</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>2713</v>
+      </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
@@ -13476,7 +13484,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="27" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="27" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="37"/>
@@ -13538,10 +13546,10 @@
         <v>1524</v>
       </c>
       <c r="AM27" s="14" t="s">
+        <v>2476</v>
+      </c>
+      <c r="AN27" s="14" t="s">
         <v>2477</v>
-      </c>
-      <c r="AN27" s="14" t="s">
-        <v>2478</v>
       </c>
       <c r="AO27" s="14"/>
       <c r="AP27" s="14"/>
@@ -13568,7 +13576,7 @@
       <c r="BK27" s="33"/>
       <c r="BL27" s="33"/>
     </row>
-    <row r="28" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="28" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A28" s="7"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
@@ -13576,13 +13584,13 @@
         <v>1559</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="5"/>
       <c r="H28" s="13"/>
       <c r="I28" s="67" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="J28" s="42" t="s">
         <v>1070</v>
@@ -13615,7 +13623,7 @@
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
@@ -13624,10 +13632,10 @@
         <v>1285</v>
       </c>
       <c r="AM28" s="21" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AN28" s="5" t="s">
         <v>2398</v>
-      </c>
-      <c r="AN28" s="5" t="s">
-        <v>2399</v>
       </c>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
@@ -13654,7 +13662,7 @@
       <c r="BK28" s="33"/>
       <c r="BL28" s="33"/>
     </row>
-    <row r="29" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="29" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
       <c r="C29" s="37" t="s">
@@ -13746,7 +13754,7 @@
       <c r="BK29" s="33"/>
       <c r="BL29" s="33"/>
     </row>
-    <row r="30" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="30" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="37"/>
@@ -13806,10 +13814,10 @@
       </c>
       <c r="AL30" s="14"/>
       <c r="AM30" s="14" t="s">
+        <v>2478</v>
+      </c>
+      <c r="AN30" s="14" t="s">
         <v>2479</v>
-      </c>
-      <c r="AN30" s="14" t="s">
-        <v>2480</v>
       </c>
       <c r="AO30" s="42"/>
       <c r="AP30" s="42"/>
@@ -13836,7 +13844,7 @@
       <c r="BK30" s="62"/>
       <c r="BL30" s="42"/>
     </row>
-    <row r="31" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="31" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="37" t="s">
@@ -13928,7 +13936,7 @@
       <c r="BK31" s="33"/>
       <c r="BL31" s="33"/>
     </row>
-    <row r="32" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="32" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A32" s="8" t="b">
         <v>0</v>
       </c>
@@ -14022,7 +14030,7 @@
       <c r="BK32" s="33"/>
       <c r="BL32" s="33"/>
     </row>
-    <row r="33" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="33" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A33" s="7" t="b">
         <v>0</v>
       </c>
@@ -14120,7 +14128,7 @@
       <c r="BK33" s="33"/>
       <c r="BL33" s="33"/>
     </row>
-    <row r="34" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="34" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="37"/>
@@ -14180,10 +14188,10 @@
       </c>
       <c r="AL34" s="14"/>
       <c r="AM34" s="14" t="s">
+        <v>2482</v>
+      </c>
+      <c r="AN34" s="14" t="s">
         <v>2483</v>
-      </c>
-      <c r="AN34" s="14" t="s">
-        <v>2484</v>
       </c>
       <c r="AO34" s="42"/>
       <c r="AP34" s="42"/>
@@ -14210,7 +14218,7 @@
       <c r="BK34" s="62"/>
       <c r="BL34" s="42"/>
     </row>
-    <row r="35" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="35" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="37"/>
@@ -14270,10 +14278,10 @@
       </c>
       <c r="AL35" s="14"/>
       <c r="AM35" s="14" t="s">
+        <v>2480</v>
+      </c>
+      <c r="AN35" s="14" t="s">
         <v>2481</v>
-      </c>
-      <c r="AN35" s="14" t="s">
-        <v>2482</v>
       </c>
       <c r="AO35" s="42"/>
       <c r="AP35" s="42"/>
@@ -14300,7 +14308,7 @@
       <c r="BK35" s="62"/>
       <c r="BL35" s="42"/>
     </row>
-    <row r="36" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="36" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A36" s="7" t="b">
         <v>0</v>
       </c>
@@ -14396,7 +14404,7 @@
       <c r="BK36" s="33"/>
       <c r="BL36" s="33"/>
     </row>
-    <row r="37" spans="1:64" s="1" customFormat="1" ht="135">
+    <row r="37" spans="1:64" s="1" customFormat="1" ht="100.8">
       <c r="A37" s="7" t="b">
         <v>0</v>
       </c>
@@ -14420,7 +14428,7 @@
         <v>1667</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="J37" s="38" t="s">
         <v>1915</v>
@@ -14459,7 +14467,7 @@
         <v>1918</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="Z37" s="5" t="s">
         <v>1919</v>
@@ -14561,7 +14569,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="38" spans="1:64" s="1" customFormat="1" ht="135">
+    <row r="38" spans="1:64" s="1" customFormat="1" ht="100.8">
       <c r="A38" s="10"/>
       <c r="B38" s="3"/>
       <c r="C38" s="13" t="s">
@@ -14695,7 +14703,7 @@
       </c>
       <c r="BL38" s="33"/>
     </row>
-    <row r="39" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="39" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A39" s="7" t="b">
         <v>0</v>
       </c>
@@ -14795,7 +14803,7 @@
       <c r="BK39" s="33"/>
       <c r="BL39" s="33"/>
     </row>
-    <row r="40" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="40" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A40" s="7" t="b">
         <v>0</v>
       </c>
@@ -14909,7 +14917,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="41" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="41" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A41" s="10"/>
       <c r="B41" s="3"/>
       <c r="C41" s="37"/>
@@ -14969,10 +14977,10 @@
       </c>
       <c r="AL41" s="14"/>
       <c r="AM41" s="14" t="s">
+        <v>2484</v>
+      </c>
+      <c r="AN41" s="14" t="s">
         <v>2485</v>
-      </c>
-      <c r="AN41" s="14" t="s">
-        <v>2486</v>
       </c>
       <c r="AO41" s="42"/>
       <c r="AP41" s="42"/>
@@ -14999,7 +15007,7 @@
       <c r="BK41" s="62"/>
       <c r="BL41" s="42"/>
     </row>
-    <row r="42" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="42" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A42" s="7" t="b">
         <v>0</v>
       </c>
@@ -15111,12 +15119,12 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="43" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="43" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A43" s="10"/>
       <c r="B43" s="3"/>
       <c r="C43" s="37"/>
       <c r="D43" s="14" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>2249</v>
@@ -15165,10 +15173,10 @@
       <c r="AK43" s="14"/>
       <c r="AL43" s="14"/>
       <c r="AM43" s="14" t="s">
+        <v>2487</v>
+      </c>
+      <c r="AN43" s="14" t="s">
         <v>2488</v>
-      </c>
-      <c r="AN43" s="14" t="s">
-        <v>2489</v>
       </c>
       <c r="AO43" s="42"/>
       <c r="AP43" s="42"/>
@@ -15195,7 +15203,7 @@
       <c r="BK43" s="62"/>
       <c r="BL43" s="42"/>
     </row>
-    <row r="44" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="44" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A44" s="10"/>
       <c r="B44" s="3"/>
       <c r="C44" s="37"/>
@@ -15285,7 +15293,7 @@
       <c r="BK44" s="33"/>
       <c r="BL44" s="33"/>
     </row>
-    <row r="45" spans="1:64" s="1" customFormat="1" ht="105">
+    <row r="45" spans="1:64" s="1" customFormat="1" ht="72">
       <c r="A45" s="7" t="b">
         <v>1</v>
       </c>
@@ -15424,7 +15432,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="46" spans="1:64" s="1" customFormat="1" ht="75">
+    <row r="46" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A46" s="7" t="b">
         <v>0</v>
       </c>
@@ -15550,7 +15558,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="47" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="47" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="13" t="s">
@@ -15640,7 +15648,7 @@
       <c r="BK47" s="33"/>
       <c r="BL47" s="33"/>
     </row>
-    <row r="48" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="48" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A48" s="7" t="b">
         <v>0</v>
       </c>
@@ -15738,7 +15746,7 @@
       <c r="BK48" s="33"/>
       <c r="BL48" s="33"/>
     </row>
-    <row r="49" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="49" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A49" s="10"/>
       <c r="B49" s="3"/>
       <c r="C49" s="37"/>
@@ -15798,10 +15806,10 @@
       </c>
       <c r="AL49" s="14"/>
       <c r="AM49" s="14" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AN49" s="14" t="s">
         <v>2490</v>
-      </c>
-      <c r="AN49" s="14" t="s">
-        <v>2491</v>
       </c>
       <c r="AO49" s="14"/>
       <c r="AP49" s="14"/>
@@ -15828,7 +15836,7 @@
       <c r="BK49" s="33"/>
       <c r="BL49" s="33"/>
     </row>
-    <row r="50" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="50" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A50" s="10"/>
       <c r="B50" s="3"/>
       <c r="C50" s="37" t="s">
@@ -15920,7 +15928,7 @@
       <c r="BK50" s="33"/>
       <c r="BL50" s="33"/>
     </row>
-    <row r="51" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="51" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A51" s="10"/>
       <c r="B51" s="3"/>
       <c r="C51" s="37"/>
@@ -16000,7 +16008,7 @@
       <c r="BK51" s="62"/>
       <c r="BL51" s="42"/>
     </row>
-    <row r="52" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="52" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A52" s="10"/>
       <c r="B52" s="3"/>
       <c r="C52" s="37"/>
@@ -16058,10 +16066,10 @@
       <c r="AK52" s="14"/>
       <c r="AL52" s="14"/>
       <c r="AM52" s="14" t="s">
+        <v>2493</v>
+      </c>
+      <c r="AN52" s="14" t="s">
         <v>2494</v>
-      </c>
-      <c r="AN52" s="14" t="s">
-        <v>2495</v>
       </c>
       <c r="AO52" s="42"/>
       <c r="AP52" s="42"/>
@@ -16088,7 +16096,7 @@
       <c r="BK52" s="62"/>
       <c r="BL52" s="42"/>
     </row>
-    <row r="53" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="53" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A53" s="10"/>
       <c r="B53" s="3"/>
       <c r="C53" s="37"/>
@@ -16142,10 +16150,10 @@
       <c r="AK53" s="14"/>
       <c r="AL53" s="14"/>
       <c r="AM53" s="14" t="s">
+        <v>2491</v>
+      </c>
+      <c r="AN53" s="14" t="s">
         <v>2492</v>
-      </c>
-      <c r="AN53" s="14" t="s">
-        <v>2493</v>
       </c>
       <c r="AO53" s="42"/>
       <c r="AP53" s="42"/>
@@ -16172,7 +16180,7 @@
       <c r="BK53" s="62"/>
       <c r="BL53" s="42"/>
     </row>
-    <row r="54" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="54" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A54" s="10"/>
       <c r="B54" s="3"/>
       <c r="C54" s="37"/>
@@ -16256,7 +16264,7 @@
       <c r="BK54" s="62"/>
       <c r="BL54" s="42"/>
     </row>
-    <row r="55" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="55" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A55" s="10"/>
       <c r="B55" s="3"/>
       <c r="C55" s="37"/>
@@ -16316,10 +16324,10 @@
       </c>
       <c r="AL55" s="14"/>
       <c r="AM55" s="14" t="s">
+        <v>2495</v>
+      </c>
+      <c r="AN55" s="14" t="s">
         <v>2496</v>
-      </c>
-      <c r="AN55" s="14" t="s">
-        <v>2497</v>
       </c>
       <c r="AO55" s="42"/>
       <c r="AP55" s="42"/>
@@ -16346,7 +16354,7 @@
       <c r="BK55" s="62"/>
       <c r="BL55" s="42"/>
     </row>
-    <row r="56" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="56" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A56" s="10"/>
       <c r="B56" s="3"/>
       <c r="C56" s="37"/>
@@ -16432,7 +16440,7 @@
       <c r="BK56" s="33"/>
       <c r="BL56" s="33"/>
     </row>
-    <row r="57" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="57" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A57" s="10"/>
       <c r="B57" s="3"/>
       <c r="C57" s="37"/>
@@ -16492,10 +16500,10 @@
       <c r="AK57" s="14"/>
       <c r="AL57" s="14"/>
       <c r="AM57" s="14" t="s">
+        <v>2497</v>
+      </c>
+      <c r="AN57" s="14" t="s">
         <v>2498</v>
-      </c>
-      <c r="AN57" s="14" t="s">
-        <v>2499</v>
       </c>
       <c r="AO57" s="42"/>
       <c r="AP57" s="42"/>
@@ -16522,7 +16530,7 @@
       <c r="BK57" s="62"/>
       <c r="BL57" s="42"/>
     </row>
-    <row r="58" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="58" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A58" s="10"/>
       <c r="B58" s="3"/>
       <c r="C58" s="37"/>
@@ -16578,10 +16586,10 @@
       <c r="AK58" s="14"/>
       <c r="AL58" s="14"/>
       <c r="AM58" s="14" t="s">
+        <v>2499</v>
+      </c>
+      <c r="AN58" s="14" t="s">
         <v>2500</v>
-      </c>
-      <c r="AN58" s="14" t="s">
-        <v>2501</v>
       </c>
       <c r="AO58" s="42"/>
       <c r="AP58" s="42"/>
@@ -16608,7 +16616,7 @@
       <c r="BK58" s="62"/>
       <c r="BL58" s="42"/>
     </row>
-    <row r="59" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="59" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A59" s="7" t="b">
         <v>1</v>
       </c>
@@ -16638,7 +16646,7 @@
         <v>1924</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -16704,7 +16712,7 @@
       <c r="BK59" s="33"/>
       <c r="BL59" s="33"/>
     </row>
-    <row r="60" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="60" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A60" s="10"/>
       <c r="B60" s="3"/>
       <c r="C60" s="37"/>
@@ -16764,10 +16772,10 @@
       </c>
       <c r="AL60" s="14"/>
       <c r="AM60" s="14" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AN60" s="14" t="s">
         <v>2502</v>
-      </c>
-      <c r="AN60" s="14" t="s">
-        <v>2503</v>
       </c>
       <c r="AO60" s="42"/>
       <c r="AP60" s="42"/>
@@ -16794,7 +16802,7 @@
       <c r="BK60" s="62"/>
       <c r="BL60" s="42"/>
     </row>
-    <row r="61" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="61" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A61" s="10"/>
       <c r="B61" s="3"/>
       <c r="C61" s="37" t="s">
@@ -16886,7 +16894,7 @@
       <c r="BK61" s="33"/>
       <c r="BL61" s="33"/>
     </row>
-    <row r="62" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="62" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="13" t="s">
@@ -16978,7 +16986,7 @@
       <c r="BK62" s="33"/>
       <c r="BL62" s="33"/>
     </row>
-    <row r="63" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="63" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A63" s="7" t="b">
         <v>0</v>
       </c>
@@ -17070,7 +17078,7 @@
       <c r="BK63" s="33"/>
       <c r="BL63" s="33"/>
     </row>
-    <row r="64" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="64" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A64" s="10"/>
       <c r="B64" s="3"/>
       <c r="C64" s="37"/>
@@ -17128,10 +17136,10 @@
       <c r="AK64" s="14"/>
       <c r="AL64" s="14"/>
       <c r="AM64" s="14" t="s">
+        <v>2503</v>
+      </c>
+      <c r="AN64" s="14" t="s">
         <v>2504</v>
-      </c>
-      <c r="AN64" s="14" t="s">
-        <v>2505</v>
       </c>
       <c r="AO64" s="42"/>
       <c r="AP64" s="42"/>
@@ -17158,7 +17166,7 @@
       <c r="BK64" s="62"/>
       <c r="BL64" s="42"/>
     </row>
-    <row r="65" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="65" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A65" s="10"/>
       <c r="B65" s="3"/>
       <c r="C65" s="37"/>
@@ -17212,10 +17220,10 @@
       <c r="AK65" s="14"/>
       <c r="AL65" s="14"/>
       <c r="AM65" s="14" t="s">
+        <v>2505</v>
+      </c>
+      <c r="AN65" s="14" t="s">
         <v>2506</v>
-      </c>
-      <c r="AN65" s="14" t="s">
-        <v>2507</v>
       </c>
       <c r="AO65" s="42"/>
       <c r="AP65" s="42"/>
@@ -17242,7 +17250,7 @@
       <c r="BK65" s="62"/>
       <c r="BL65" s="42"/>
     </row>
-    <row r="66" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="66" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A66" s="7"/>
       <c r="B66" s="2"/>
       <c r="C66" s="13" t="s">
@@ -17332,7 +17340,7 @@
       <c r="BK66" s="33"/>
       <c r="BL66" s="33"/>
     </row>
-    <row r="67" spans="1:64" s="9" customFormat="1" ht="135">
+    <row r="67" spans="1:64" s="9" customFormat="1" ht="100.8">
       <c r="A67" s="7" t="b">
         <v>0</v>
       </c>
@@ -17492,7 +17500,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="68" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="68" spans="1:64" s="9" customFormat="1" ht="43.2">
       <c r="A68" s="10"/>
       <c r="B68" s="3"/>
       <c r="C68" s="37" t="s">
@@ -17582,7 +17590,7 @@
       <c r="BK68" s="33"/>
       <c r="BL68" s="33"/>
     </row>
-    <row r="69" spans="1:64" s="9" customFormat="1" ht="60">
+    <row r="69" spans="1:64" s="9" customFormat="1" ht="57.6">
       <c r="A69" s="7" t="b">
         <v>0</v>
       </c>
@@ -17722,7 +17730,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="70" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="70" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A70" s="10"/>
       <c r="B70" s="3"/>
       <c r="C70" s="37"/>
@@ -17780,10 +17788,10 @@
       <c r="AK70" s="14"/>
       <c r="AL70" s="14"/>
       <c r="AM70" s="14" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AN70" s="14" t="s">
         <v>2508</v>
-      </c>
-      <c r="AN70" s="14" t="s">
-        <v>2509</v>
       </c>
       <c r="AO70" s="14"/>
       <c r="AP70" s="14"/>
@@ -17810,7 +17818,7 @@
       <c r="BK70" s="33"/>
       <c r="BL70" s="33"/>
     </row>
-    <row r="71" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="71" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A71" s="10"/>
       <c r="B71" s="3"/>
       <c r="C71" s="37"/>
@@ -17890,7 +17898,7 @@
       <c r="BK71" s="62"/>
       <c r="BL71" s="42"/>
     </row>
-    <row r="72" spans="1:64" s="9" customFormat="1" ht="60">
+    <row r="72" spans="1:64" s="9" customFormat="1" ht="57.6">
       <c r="A72" s="10"/>
       <c r="B72" s="3"/>
       <c r="C72" s="37" t="s">
@@ -17982,7 +17990,7 @@
       <c r="BK72" s="33"/>
       <c r="BL72" s="33"/>
     </row>
-    <row r="73" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="73" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A73" s="10"/>
       <c r="B73" s="3"/>
       <c r="C73" s="37"/>
@@ -18042,10 +18050,10 @@
       </c>
       <c r="AL73" s="14"/>
       <c r="AM73" s="14" t="s">
+        <v>2509</v>
+      </c>
+      <c r="AN73" s="14" t="s">
         <v>2510</v>
-      </c>
-      <c r="AN73" s="14" t="s">
-        <v>2511</v>
       </c>
       <c r="AO73" s="42"/>
       <c r="AP73" s="42"/>
@@ -18072,7 +18080,7 @@
       <c r="BK73" s="62"/>
       <c r="BL73" s="42"/>
     </row>
-    <row r="74" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="74" spans="1:64" s="9" customFormat="1" ht="43.2">
       <c r="A74" s="7"/>
       <c r="B74" s="2"/>
       <c r="C74" s="13" t="s">
@@ -18164,7 +18172,7 @@
       <c r="BK74" s="33"/>
       <c r="BL74" s="33"/>
     </row>
-    <row r="75" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="75" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A75" s="10"/>
       <c r="B75" s="3"/>
       <c r="C75" s="37"/>
@@ -18224,10 +18232,10 @@
       </c>
       <c r="AL75" s="14"/>
       <c r="AM75" s="14" t="s">
+        <v>2511</v>
+      </c>
+      <c r="AN75" s="14" t="s">
         <v>2512</v>
-      </c>
-      <c r="AN75" s="14" t="s">
-        <v>2513</v>
       </c>
       <c r="AO75" s="42"/>
       <c r="AP75" s="42"/>
@@ -18254,7 +18262,7 @@
       <c r="BK75" s="62"/>
       <c r="BL75" s="42"/>
     </row>
-    <row r="76" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="76" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A76" s="10"/>
       <c r="B76" s="3"/>
       <c r="C76" s="37"/>
@@ -18342,7 +18350,7 @@
       <c r="BK76" s="33"/>
       <c r="BL76" s="33"/>
     </row>
-    <row r="77" spans="1:64" s="9" customFormat="1" ht="60">
+    <row r="77" spans="1:64" s="9" customFormat="1" ht="57.6">
       <c r="A77" s="7"/>
       <c r="B77" s="2"/>
       <c r="C77" s="13" t="s">
@@ -18432,7 +18440,7 @@
       <c r="BK77" s="33"/>
       <c r="BL77" s="33"/>
     </row>
-    <row r="78" spans="1:64" s="9" customFormat="1" ht="60">
+    <row r="78" spans="1:64" s="9" customFormat="1" ht="57.6">
       <c r="A78" s="7" t="b">
         <v>0</v>
       </c>
@@ -18542,7 +18550,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="79" spans="1:64" s="9" customFormat="1" ht="60">
+    <row r="79" spans="1:64" s="9" customFormat="1" ht="57.6">
       <c r="A79" s="7" t="b">
         <v>0</v>
       </c>
@@ -18656,7 +18664,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="80" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="80" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A80" s="10"/>
       <c r="B80" s="3"/>
       <c r="C80" s="37"/>
@@ -18710,10 +18718,10 @@
       <c r="AK80" s="14"/>
       <c r="AL80" s="14"/>
       <c r="AM80" s="14" t="s">
+        <v>2513</v>
+      </c>
+      <c r="AN80" s="14" t="s">
         <v>2514</v>
-      </c>
-      <c r="AN80" s="14" t="s">
-        <v>2515</v>
       </c>
       <c r="AO80" s="42"/>
       <c r="AP80" s="42"/>
@@ -18740,7 +18748,7 @@
       <c r="BK80" s="62"/>
       <c r="BL80" s="42"/>
     </row>
-    <row r="81" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="81" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A81" s="10"/>
       <c r="B81" s="3"/>
       <c r="C81" s="37"/>
@@ -18796,10 +18804,10 @@
       <c r="AK81" s="14"/>
       <c r="AL81" s="14"/>
       <c r="AM81" s="14" t="s">
+        <v>2515</v>
+      </c>
+      <c r="AN81" s="14" t="s">
         <v>2516</v>
-      </c>
-      <c r="AN81" s="14" t="s">
-        <v>2517</v>
       </c>
       <c r="AO81" s="42"/>
       <c r="AP81" s="42"/>
@@ -18826,7 +18834,7 @@
       <c r="BK81" s="62"/>
       <c r="BL81" s="42"/>
     </row>
-    <row r="82" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="82" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A82" s="10"/>
       <c r="B82" s="3"/>
       <c r="C82" s="37"/>
@@ -18886,10 +18894,10 @@
       </c>
       <c r="AL82" s="14"/>
       <c r="AM82" s="14" t="s">
+        <v>2517</v>
+      </c>
+      <c r="AN82" s="14" t="s">
         <v>2518</v>
-      </c>
-      <c r="AN82" s="14" t="s">
-        <v>2519</v>
       </c>
       <c r="AO82" s="42"/>
       <c r="AP82" s="42"/>
@@ -18916,7 +18924,7 @@
       <c r="BK82" s="62"/>
       <c r="BL82" s="42"/>
     </row>
-    <row r="83" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="83" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A83" s="10"/>
       <c r="B83" s="3"/>
       <c r="C83" s="37"/>
@@ -18976,10 +18984,10 @@
       </c>
       <c r="AL83" s="14"/>
       <c r="AM83" s="14" t="s">
+        <v>2519</v>
+      </c>
+      <c r="AN83" s="14" t="s">
         <v>2520</v>
-      </c>
-      <c r="AN83" s="14" t="s">
-        <v>2521</v>
       </c>
       <c r="AO83" s="42"/>
       <c r="AP83" s="42"/>
@@ -19006,7 +19014,7 @@
       <c r="BK83" s="62"/>
       <c r="BL83" s="42"/>
     </row>
-    <row r="84" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="84" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A84" s="10"/>
       <c r="B84" s="3"/>
       <c r="C84" s="37"/>
@@ -19060,10 +19068,10 @@
       <c r="AK84" s="14"/>
       <c r="AL84" s="14"/>
       <c r="AM84" s="14" t="s">
+        <v>2521</v>
+      </c>
+      <c r="AN84" s="14" t="s">
         <v>2522</v>
-      </c>
-      <c r="AN84" s="14" t="s">
-        <v>2523</v>
       </c>
       <c r="AO84" s="42"/>
       <c r="AP84" s="42"/>
@@ -19090,7 +19098,7 @@
       <c r="BK84" s="62"/>
       <c r="BL84" s="42"/>
     </row>
-    <row r="85" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="85" spans="1:64" s="9" customFormat="1" ht="43.2">
       <c r="A85" s="7" t="b">
         <v>0</v>
       </c>
@@ -19204,7 +19212,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="86" spans="1:64" s="9" customFormat="1" ht="45">
+    <row r="86" spans="1:64" s="9" customFormat="1" ht="28.8">
       <c r="A86" s="7" t="b">
         <v>1</v>
       </c>
@@ -19296,7 +19304,7 @@
       <c r="BK86" s="33"/>
       <c r="BL86" s="33"/>
     </row>
-    <row r="87" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="87" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A87" s="7" t="b">
         <v>0</v>
       </c>
@@ -19401,10 +19409,10 @@
         <v>107</v>
       </c>
       <c r="AM87" s="21" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="AN87" s="21" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="AO87" s="5" t="s">
         <v>768</v>
@@ -19455,7 +19463,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="88" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="88" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A88" s="7" t="b">
         <v>0</v>
       </c>
@@ -19601,7 +19609,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="89" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="89" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A89" s="10"/>
       <c r="B89" s="3"/>
       <c r="C89" s="37"/>
@@ -19687,7 +19695,7 @@
       <c r="BK89" s="62"/>
       <c r="BL89" s="42"/>
     </row>
-    <row r="90" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="90" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A90" s="7" t="b">
         <v>0</v>
       </c>
@@ -19714,7 +19722,7 @@
         <v>1923</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -19781,7 +19789,7 @@
       <c r="BK90" s="33"/>
       <c r="BL90" s="33"/>
     </row>
-    <row r="91" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="91" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A91" s="10"/>
       <c r="B91" s="3"/>
       <c r="C91" s="37"/>
@@ -19835,10 +19843,10 @@
       <c r="AK91" s="14"/>
       <c r="AL91" s="14"/>
       <c r="AM91" s="14" t="s">
+        <v>2525</v>
+      </c>
+      <c r="AN91" s="14" t="s">
         <v>2526</v>
-      </c>
-      <c r="AN91" s="14" t="s">
-        <v>2527</v>
       </c>
       <c r="AO91" s="42"/>
       <c r="AP91" s="42"/>
@@ -19865,7 +19873,7 @@
       <c r="BK91" s="62"/>
       <c r="BL91" s="42"/>
     </row>
-    <row r="92" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="92" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A92" s="7" t="b">
         <v>0</v>
       </c>
@@ -19920,7 +19928,7 @@
         <v>1923</v>
       </c>
       <c r="AD92" s="42" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="AE92" s="42"/>
       <c r="AF92" s="5" t="s">
@@ -19979,7 +19987,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="93" spans="1:64" s="1" customFormat="1" ht="240">
+    <row r="93" spans="1:64" s="1" customFormat="1" ht="187.2">
       <c r="A93" s="10"/>
       <c r="B93" s="3"/>
       <c r="C93" s="37" t="s">
@@ -20124,7 +20132,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="94" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="94" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A94" s="7"/>
       <c r="B94" s="2"/>
       <c r="C94" s="13" t="s">
@@ -20216,17 +20224,17 @@
       <c r="BK94" s="33"/>
       <c r="BL94" s="33"/>
     </row>
-    <row r="95" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="95" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A95" s="10"/>
       <c r="B95" s="3"/>
       <c r="C95" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D95" s="14" t="s">
+        <v>2459</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>2460</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>2461</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14"/>
@@ -20267,17 +20275,17 @@
       </c>
       <c r="AI95" s="14"/>
       <c r="AJ95" s="14" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AK95" s="14"/>
       <c r="AL95" s="14" t="s">
         <v>242</v>
       </c>
       <c r="AM95" s="30" t="s">
+        <v>2462</v>
+      </c>
+      <c r="AN95" s="14" t="s">
         <v>2463</v>
-      </c>
-      <c r="AN95" s="14" t="s">
-        <v>2464</v>
       </c>
       <c r="AO95" s="42"/>
       <c r="AP95" s="42"/>
@@ -20304,7 +20312,7 @@
       <c r="BK95" s="62"/>
       <c r="BL95" s="42"/>
     </row>
-    <row r="96" spans="1:64" s="1" customFormat="1" ht="30">
+    <row r="96" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A96" s="7" t="b">
         <v>0</v>
       </c>
@@ -20402,7 +20410,7 @@
       <c r="BK96" s="33"/>
       <c r="BL96" s="33"/>
     </row>
-    <row r="97" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="97" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A97" s="7" t="b">
         <v>1</v>
       </c>
@@ -20429,7 +20437,7 @@
         <v>1923</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="18"/>
@@ -20494,7 +20502,7 @@
       <c r="BK97" s="33"/>
       <c r="BL97" s="33"/>
     </row>
-    <row r="98" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="98" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A98" s="7" t="b">
         <v>0</v>
       </c>
@@ -20590,7 +20598,7 @@
       <c r="BK98" s="33"/>
       <c r="BL98" s="33"/>
     </row>
-    <row r="99" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="99" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A99" s="10"/>
       <c r="B99" s="3"/>
       <c r="C99" s="37"/>
@@ -20678,7 +20686,7 @@
       <c r="BK99" s="33"/>
       <c r="BL99" s="33"/>
     </row>
-    <row r="100" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="100" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A100" s="10"/>
       <c r="B100" s="3"/>
       <c r="C100" s="37"/>
@@ -20738,10 +20746,10 @@
       </c>
       <c r="AL100" s="14"/>
       <c r="AM100" s="14" t="s">
+        <v>2527</v>
+      </c>
+      <c r="AN100" s="14" t="s">
         <v>2528</v>
-      </c>
-      <c r="AN100" s="14" t="s">
-        <v>2529</v>
       </c>
       <c r="AO100" s="42"/>
       <c r="AP100" s="42"/>
@@ -20768,7 +20776,7 @@
       <c r="BK100" s="62"/>
       <c r="BL100" s="42"/>
     </row>
-    <row r="101" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="101" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A101" s="7" t="b">
         <v>0</v>
       </c>
@@ -20864,7 +20872,7 @@
       <c r="BK101" s="33"/>
       <c r="BL101" s="33"/>
     </row>
-    <row r="102" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="102" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A102" s="10"/>
       <c r="B102" s="3"/>
       <c r="C102" s="37"/>
@@ -20918,10 +20926,10 @@
       <c r="AK102" s="14"/>
       <c r="AL102" s="14"/>
       <c r="AM102" s="14" t="s">
+        <v>2529</v>
+      </c>
+      <c r="AN102" s="14" t="s">
         <v>2530</v>
-      </c>
-      <c r="AN102" s="14" t="s">
-        <v>2531</v>
       </c>
       <c r="AO102" s="42"/>
       <c r="AP102" s="42"/>
@@ -20948,7 +20956,7 @@
       <c r="BK102" s="62"/>
       <c r="BL102" s="42"/>
     </row>
-    <row r="103" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="103" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A103" s="10"/>
       <c r="B103" s="3"/>
       <c r="C103" s="37"/>
@@ -21010,10 +21018,10 @@
         <v>1524</v>
       </c>
       <c r="AM103" s="14" t="s">
+        <v>2531</v>
+      </c>
+      <c r="AN103" s="14" t="s">
         <v>2532</v>
-      </c>
-      <c r="AN103" s="14" t="s">
-        <v>2533</v>
       </c>
       <c r="AO103" s="14"/>
       <c r="AP103" s="14"/>
@@ -21040,7 +21048,7 @@
       <c r="BK103" s="33"/>
       <c r="BL103" s="33"/>
     </row>
-    <row r="104" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="104" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A104" s="10"/>
       <c r="B104" s="3"/>
       <c r="C104" s="37"/>
@@ -21130,7 +21138,7 @@
       <c r="BK104" s="33"/>
       <c r="BL104" s="33"/>
     </row>
-    <row r="105" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="105" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A105" s="7"/>
       <c r="B105" s="2"/>
       <c r="C105" s="13" t="s">
@@ -21222,7 +21230,7 @@
       <c r="BK105" s="33"/>
       <c r="BL105" s="33"/>
     </row>
-    <row r="106" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="106" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A106" s="10"/>
       <c r="B106" s="3"/>
       <c r="C106" s="37" t="s">
@@ -21314,7 +21322,7 @@
       <c r="BK106" s="33"/>
       <c r="BL106" s="33"/>
     </row>
-    <row r="107" spans="1:64" s="1" customFormat="1" ht="135">
+    <row r="107" spans="1:64" s="1" customFormat="1" ht="100.8">
       <c r="A107" s="7" t="b">
         <v>0</v>
       </c>
@@ -21466,7 +21474,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="108" spans="1:64" s="1" customFormat="1" ht="135">
+    <row r="108" spans="1:64" s="1" customFormat="1" ht="100.8">
       <c r="A108" s="10"/>
       <c r="B108" s="3"/>
       <c r="C108" s="13" t="s">
@@ -21600,17 +21608,17 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="109" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="109" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A109" s="8"/>
       <c r="B109" s="4"/>
       <c r="C109" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D109" s="5" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>2434</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>2435</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="5"/>
@@ -21664,10 +21672,10 @@
         <v>406</v>
       </c>
       <c r="AM109" s="21" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="AN109" s="72" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="AO109" s="5"/>
       <c r="AP109" s="5"/>
@@ -21694,7 +21702,7 @@
       <c r="BK109" s="33"/>
       <c r="BL109" s="33"/>
     </row>
-    <row r="110" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="110" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A110" s="10"/>
       <c r="B110" s="3"/>
       <c r="C110" s="37"/>
@@ -21754,10 +21762,10 @@
       </c>
       <c r="AL110" s="14"/>
       <c r="AM110" s="14" t="s">
+        <v>2534</v>
+      </c>
+      <c r="AN110" s="14" t="s">
         <v>2535</v>
-      </c>
-      <c r="AN110" s="14" t="s">
-        <v>2536</v>
       </c>
       <c r="AO110" s="42"/>
       <c r="AP110" s="42"/>
@@ -21784,7 +21792,7 @@
       <c r="BK110" s="62"/>
       <c r="BL110" s="42"/>
     </row>
-    <row r="111" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="111" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A111" s="10"/>
       <c r="B111" s="3"/>
       <c r="C111" s="37"/>
@@ -21838,10 +21846,10 @@
       <c r="AK111" s="14"/>
       <c r="AL111" s="14"/>
       <c r="AM111" s="14" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AN111" s="14" t="s">
         <v>2537</v>
-      </c>
-      <c r="AN111" s="14" t="s">
-        <v>2538</v>
       </c>
       <c r="AO111" s="42"/>
       <c r="AP111" s="42"/>
@@ -21868,7 +21876,7 @@
       <c r="BK111" s="62"/>
       <c r="BL111" s="42"/>
     </row>
-    <row r="112" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="112" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A112" s="10"/>
       <c r="B112" s="3"/>
       <c r="C112" s="37"/>
@@ -21952,7 +21960,7 @@
       <c r="BK112" s="33"/>
       <c r="BL112" s="33"/>
     </row>
-    <row r="113" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="113" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A113" s="7" t="b">
         <v>0</v>
       </c>
@@ -22048,7 +22056,7 @@
       <c r="BK113" s="33"/>
       <c r="BL113" s="33"/>
     </row>
-    <row r="114" spans="1:64" s="1" customFormat="1" ht="180">
+    <row r="114" spans="1:64" s="1" customFormat="1" ht="129.6">
       <c r="A114" s="7" t="b">
         <v>0</v>
       </c>
@@ -22207,7 +22215,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="115" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="115" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A115" s="7" t="b">
         <v>1</v>
       </c>
@@ -22301,7 +22309,7 @@
       <c r="BK115" s="33"/>
       <c r="BL115" s="33"/>
     </row>
-    <row r="116" spans="1:64" s="1" customFormat="1" ht="30">
+    <row r="116" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A116" s="7" t="b">
         <v>1</v>
       </c>
@@ -22383,7 +22391,7 @@
       <c r="BK116" s="33"/>
       <c r="BL116" s="33"/>
     </row>
-    <row r="117" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="117" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A117" s="7" t="b">
         <v>0</v>
       </c>
@@ -22473,15 +22481,15 @@
       <c r="BK117" s="33"/>
       <c r="BL117" s="33"/>
     </row>
-    <row r="118" spans="1:64" s="1" customFormat="1" ht="30">
+    <row r="118" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A118" s="7"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
       <c r="D118" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>2377</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>2378</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="5"/>
@@ -22512,17 +22520,17 @@
       <c r="AF118" s="5"/>
       <c r="AG118" s="5"/>
       <c r="AH118" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="AI118" s="5"/>
       <c r="AJ118" s="5"/>
       <c r="AK118" s="5"/>
       <c r="AL118" s="5"/>
       <c r="AM118" s="21" t="s">
+        <v>2379</v>
+      </c>
+      <c r="AN118" s="5" t="s">
         <v>2380</v>
-      </c>
-      <c r="AN118" s="5" t="s">
-        <v>2381</v>
       </c>
       <c r="AO118" s="5"/>
       <c r="AP118" s="5"/>
@@ -22549,7 +22557,7 @@
       <c r="BK118" s="33"/>
       <c r="BL118" s="33"/>
     </row>
-    <row r="119" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="119" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A119" s="10"/>
       <c r="B119" s="3"/>
       <c r="C119" s="37"/>
@@ -22603,10 +22611,10 @@
       <c r="AK119" s="14"/>
       <c r="AL119" s="14"/>
       <c r="AM119" s="14" t="s">
+        <v>2538</v>
+      </c>
+      <c r="AN119" s="14" t="s">
         <v>2539</v>
-      </c>
-      <c r="AN119" s="14" t="s">
-        <v>2540</v>
       </c>
       <c r="AO119" s="42"/>
       <c r="AP119" s="42"/>
@@ -22633,7 +22641,7 @@
       <c r="BK119" s="62"/>
       <c r="BL119" s="42"/>
     </row>
-    <row r="120" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="120" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A120" s="10"/>
       <c r="B120" s="3"/>
       <c r="C120" s="37" t="s">
@@ -22741,7 +22749,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="121" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="121" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A121" s="10"/>
       <c r="B121" s="3"/>
       <c r="C121" s="37"/>
@@ -22827,7 +22835,7 @@
       <c r="BK121" s="62"/>
       <c r="BL121" s="42"/>
     </row>
-    <row r="122" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="122" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A122" s="7" t="b">
         <v>0</v>
       </c>
@@ -22921,7 +22929,7 @@
       <c r="BK122" s="33"/>
       <c r="BL122" s="33"/>
     </row>
-    <row r="123" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="123" spans="1:64" s="1" customFormat="1" ht="86.4">
       <c r="A123" s="10"/>
       <c r="B123" s="3"/>
       <c r="C123" s="37" t="s">
@@ -22980,7 +22988,7 @@
         <v>1918</v>
       </c>
       <c r="Y123" s="45" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="Z123" s="14" t="s">
         <v>1921</v>
@@ -23060,7 +23068,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="124" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="124" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A124" s="10"/>
       <c r="B124" s="3"/>
       <c r="C124" s="37"/>
@@ -23152,7 +23160,7 @@
       <c r="BK124" s="33"/>
       <c r="BL124" s="33"/>
     </row>
-    <row r="125" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="125" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A125" s="7" t="b">
         <v>1</v>
       </c>
@@ -23244,7 +23252,7 @@
       <c r="BK125" s="33"/>
       <c r="BL125" s="33"/>
     </row>
-    <row r="126" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="126" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A126" s="10"/>
       <c r="B126" s="3"/>
       <c r="C126" s="37"/>
@@ -23324,7 +23332,7 @@
       <c r="BK126" s="62"/>
       <c r="BL126" s="42"/>
     </row>
-    <row r="127" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="127" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A127" s="10"/>
       <c r="B127" s="3"/>
       <c r="C127" s="37"/>
@@ -23408,15 +23416,15 @@
       <c r="BK127" s="33"/>
       <c r="BL127" s="33"/>
     </row>
-    <row r="128" spans="1:64" s="1" customFormat="1" ht="30">
+    <row r="128" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A128" s="7"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
       <c r="D128" s="5" t="s">
+        <v>2409</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>2410</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>2411</v>
       </c>
       <c r="F128" s="17"/>
       <c r="G128" s="5"/>
@@ -23470,10 +23478,10 @@
         <v>548</v>
       </c>
       <c r="AM128" s="21" t="s">
+        <v>2411</v>
+      </c>
+      <c r="AN128" s="5" t="s">
         <v>2412</v>
-      </c>
-      <c r="AN128" s="5" t="s">
-        <v>2413</v>
       </c>
       <c r="AO128" s="5"/>
       <c r="AP128" s="5"/>
@@ -23500,7 +23508,7 @@
       <c r="BK128" s="33"/>
       <c r="BL128" s="33"/>
     </row>
-    <row r="129" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="129" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A129" s="7"/>
       <c r="B129" s="2"/>
       <c r="C129" s="13" t="s">
@@ -23590,7 +23598,7 @@
       <c r="BK129" s="33"/>
       <c r="BL129" s="33"/>
     </row>
-    <row r="130" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="130" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A130" s="7" t="b">
         <v>0</v>
       </c>
@@ -23655,7 +23663,7 @@
         <v>1923</v>
       </c>
       <c r="AD130" s="42" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="AE130" s="42"/>
       <c r="AF130" s="5" t="s">
@@ -23722,7 +23730,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="131" spans="1:64" s="1" customFormat="1" ht="135">
+    <row r="131" spans="1:64" s="1" customFormat="1" ht="100.8">
       <c r="A131" s="7" t="b">
         <v>0</v>
       </c>
@@ -23779,7 +23787,7 @@
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
       <c r="Y131" s="46" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="Z131" s="5" t="s">
         <v>1921</v>
@@ -23879,7 +23887,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="132" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="132" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A132" s="10"/>
       <c r="B132" s="3"/>
       <c r="C132" s="37"/>
@@ -23969,7 +23977,7 @@
       <c r="BK132" s="33"/>
       <c r="BL132" s="33"/>
     </row>
-    <row r="133" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="133" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A133" s="10"/>
       <c r="B133" s="3"/>
       <c r="C133" s="37"/>
@@ -24023,10 +24031,10 @@
       <c r="AK133" s="14"/>
       <c r="AL133" s="14"/>
       <c r="AM133" s="14" t="s">
+        <v>2540</v>
+      </c>
+      <c r="AN133" s="14" t="s">
         <v>2541</v>
-      </c>
-      <c r="AN133" s="14" t="s">
-        <v>2542</v>
       </c>
       <c r="AO133" s="42"/>
       <c r="AP133" s="42"/>
@@ -24053,7 +24061,7 @@
       <c r="BK133" s="62"/>
       <c r="BL133" s="42"/>
     </row>
-    <row r="134" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="134" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A134" s="7" t="b">
         <v>0</v>
       </c>
@@ -24147,7 +24155,7 @@
       <c r="BK134" s="33"/>
       <c r="BL134" s="33"/>
     </row>
-    <row r="135" spans="1:64" s="1" customFormat="1" ht="165">
+    <row r="135" spans="1:64" s="1" customFormat="1" ht="129.6">
       <c r="A135" s="10"/>
       <c r="B135" s="3"/>
       <c r="C135" s="37" t="s">
@@ -24298,7 +24306,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="136" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="136" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A136" s="7" t="b">
         <v>0</v>
       </c>
@@ -24410,7 +24418,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="137" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="137" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A137" s="10"/>
       <c r="B137" s="3"/>
       <c r="C137" s="37" t="s">
@@ -24502,7 +24510,7 @@
       <c r="BK137" s="33"/>
       <c r="BL137" s="33"/>
     </row>
-    <row r="138" spans="1:64" s="1" customFormat="1" ht="60">
+    <row r="138" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A138" s="7" t="b">
         <v>0</v>
       </c>
@@ -24596,15 +24604,15 @@
       <c r="BK138" s="33"/>
       <c r="BL138" s="33"/>
     </row>
-    <row r="139" spans="1:64" s="1" customFormat="1" ht="30">
+    <row r="139" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A139" s="7"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
       <c r="D139" s="5" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>2382</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>2383</v>
       </c>
       <c r="F139" s="17"/>
       <c r="G139" s="5"/>
@@ -24635,19 +24643,19 @@
       <c r="AF139" s="5"/>
       <c r="AG139" s="5"/>
       <c r="AH139" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="AI139" s="42"/>
       <c r="AJ139" s="5"/>
       <c r="AK139" s="5"/>
       <c r="AL139" s="5" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AM139" s="21" t="s">
         <v>2385</v>
       </c>
-      <c r="AM139" s="21" t="s">
+      <c r="AN139" s="5" t="s">
         <v>2386</v>
-      </c>
-      <c r="AN139" s="5" t="s">
-        <v>2387</v>
       </c>
       <c r="AO139" s="5"/>
       <c r="AP139" s="5"/>
@@ -24674,7 +24682,7 @@
       <c r="BK139" s="33"/>
       <c r="BL139" s="33"/>
     </row>
-    <row r="140" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="140" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A140" s="7" t="b">
         <v>1</v>
       </c>
@@ -24768,7 +24776,7 @@
       <c r="BK140" s="33"/>
       <c r="BL140" s="33"/>
     </row>
-    <row r="141" spans="1:64" s="1" customFormat="1" ht="75">
+    <row r="141" spans="1:64" s="1" customFormat="1" ht="57.6">
       <c r="A141" s="10"/>
       <c r="B141" s="3"/>
       <c r="C141" s="37" t="s">
@@ -24797,10 +24805,10 @@
         <v>1926</v>
       </c>
       <c r="L141" s="14" t="s">
+        <v>2688</v>
+      </c>
+      <c r="M141" s="14" t="s">
         <v>2689</v>
-      </c>
-      <c r="M141" s="14" t="s">
-        <v>2690</v>
       </c>
       <c r="N141" s="14" t="s">
         <v>1927</v>
@@ -24922,7 +24930,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="142" spans="1:64" s="11" customFormat="1" ht="45">
+    <row r="142" spans="1:64" s="11" customFormat="1" ht="28.8">
       <c r="A142" s="10"/>
       <c r="B142" s="3"/>
       <c r="C142" s="37"/>
@@ -25008,7 +25016,7 @@
       <c r="BK142" s="33"/>
       <c r="BL142" s="33"/>
     </row>
-    <row r="143" spans="1:64" s="11" customFormat="1" ht="45">
+    <row r="143" spans="1:64" s="11" customFormat="1" ht="43.2">
       <c r="A143" s="10"/>
       <c r="B143" s="3"/>
       <c r="C143" s="37" t="s">
@@ -25118,7 +25126,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="144" spans="1:64" s="11" customFormat="1" ht="90">
+    <row r="144" spans="1:64" s="11" customFormat="1" ht="72">
       <c r="A144" s="7" t="b">
         <v>0</v>
       </c>
@@ -25258,7 +25266,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="145" spans="1:64" s="11" customFormat="1" ht="45">
+    <row r="145" spans="1:64" s="11" customFormat="1" ht="28.8">
       <c r="A145" s="10"/>
       <c r="B145" s="3"/>
       <c r="C145" s="37"/>
@@ -25344,7 +25352,7 @@
       <c r="BK145" s="62"/>
       <c r="BL145" s="42"/>
     </row>
-    <row r="146" spans="1:64" s="11" customFormat="1" ht="90">
+    <row r="146" spans="1:64" s="11" customFormat="1" ht="86.4">
       <c r="A146" s="7" t="b">
         <v>0</v>
       </c>
@@ -25394,7 +25402,7 @@
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
       <c r="Y146" s="46" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="Z146" s="5" t="s">
         <v>1921</v>
@@ -25484,7 +25492,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="147" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="147" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A147" s="10"/>
       <c r="B147" s="3"/>
       <c r="C147" s="37"/>
@@ -25564,7 +25572,7 @@
       <c r="BK147" s="62"/>
       <c r="BL147" s="42"/>
     </row>
-    <row r="148" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="148" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A148" s="7" t="b">
         <v>0</v>
       </c>
@@ -25662,7 +25670,7 @@
       <c r="BK148" s="33"/>
       <c r="BL148" s="33"/>
     </row>
-    <row r="149" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="149" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A149" s="10"/>
       <c r="B149" s="3"/>
       <c r="C149" s="37"/>
@@ -25720,10 +25728,10 @@
       <c r="AK149" s="14"/>
       <c r="AL149" s="14"/>
       <c r="AM149" s="14" t="s">
+        <v>2542</v>
+      </c>
+      <c r="AN149" s="14" t="s">
         <v>2543</v>
-      </c>
-      <c r="AN149" s="14" t="s">
-        <v>2544</v>
       </c>
       <c r="AO149" s="42"/>
       <c r="AP149" s="42"/>
@@ -25750,7 +25758,7 @@
       <c r="BK149" s="62"/>
       <c r="BL149" s="42"/>
     </row>
-    <row r="150" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="150" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A150" s="7" t="b">
         <v>0</v>
       </c>
@@ -25848,7 +25856,7 @@
       <c r="BK150" s="33"/>
       <c r="BL150" s="33"/>
     </row>
-    <row r="151" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="151" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A151" s="10"/>
       <c r="B151" s="3"/>
       <c r="C151" s="37"/>
@@ -25908,10 +25916,10 @@
       <c r="AK151" s="14"/>
       <c r="AL151" s="14"/>
       <c r="AM151" s="14" t="s">
+        <v>2544</v>
+      </c>
+      <c r="AN151" s="14" t="s">
         <v>2545</v>
-      </c>
-      <c r="AN151" s="14" t="s">
-        <v>2546</v>
       </c>
       <c r="AO151" s="42"/>
       <c r="AP151" s="42"/>
@@ -25938,7 +25946,7 @@
       <c r="BK151" s="62"/>
       <c r="BL151" s="42"/>
     </row>
-    <row r="152" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="152" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A152" s="10"/>
       <c r="B152" s="3"/>
       <c r="C152" s="37"/>
@@ -25998,10 +26006,10 @@
       </c>
       <c r="AL152" s="14"/>
       <c r="AM152" s="14" t="s">
+        <v>2546</v>
+      </c>
+      <c r="AN152" s="14" t="s">
         <v>2547</v>
-      </c>
-      <c r="AN152" s="14" t="s">
-        <v>2548</v>
       </c>
       <c r="AO152" s="42"/>
       <c r="AP152" s="42"/>
@@ -26028,7 +26036,7 @@
       <c r="BK152" s="62"/>
       <c r="BL152" s="42"/>
     </row>
-    <row r="153" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="153" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A153" s="10"/>
       <c r="B153" s="3"/>
       <c r="C153" s="37" t="s">
@@ -26120,7 +26128,7 @@
       <c r="BK153" s="33"/>
       <c r="BL153" s="33"/>
     </row>
-    <row r="154" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="154" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A154" s="10"/>
       <c r="B154" s="3"/>
       <c r="C154" s="37" t="s">
@@ -26212,7 +26220,7 @@
       <c r="BK154" s="33"/>
       <c r="BL154" s="33"/>
     </row>
-    <row r="155" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="155" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A155" s="10"/>
       <c r="B155" s="3"/>
       <c r="C155" s="37"/>
@@ -26266,10 +26274,10 @@
       <c r="AK155" s="14"/>
       <c r="AL155" s="14"/>
       <c r="AM155" s="14" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AN155" s="14" t="s">
         <v>2549</v>
-      </c>
-      <c r="AN155" s="14" t="s">
-        <v>2550</v>
       </c>
       <c r="AO155" s="42"/>
       <c r="AP155" s="42"/>
@@ -26296,7 +26304,7 @@
       <c r="BK155" s="62"/>
       <c r="BL155" s="42"/>
     </row>
-    <row r="156" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="156" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A156" s="7" t="b">
         <v>0</v>
       </c>
@@ -26390,7 +26398,7 @@
       <c r="BK156" s="33"/>
       <c r="BL156" s="33"/>
     </row>
-    <row r="157" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="157" spans="1:64" s="1" customFormat="1" ht="86.4">
       <c r="A157" s="10"/>
       <c r="B157" s="3"/>
       <c r="C157" s="37"/>
@@ -26406,7 +26414,7 @@
       </c>
       <c r="H157" s="37"/>
       <c r="I157" s="63" t="s">
-        <v>2364</v>
+        <v>2714</v>
       </c>
       <c r="J157" s="14" t="s">
         <v>1925</v>
@@ -26461,7 +26469,7 @@
       <c r="AF157" s="14"/>
       <c r="AG157" s="14"/>
       <c r="AH157" s="14" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="AI157" s="14"/>
       <c r="AJ157" s="14"/>
@@ -26470,10 +26478,10 @@
         <v>268</v>
       </c>
       <c r="AM157" s="30" t="s">
+        <v>2457</v>
+      </c>
+      <c r="AN157" s="14" t="s">
         <v>2458</v>
-      </c>
-      <c r="AN157" s="14" t="s">
-        <v>2459</v>
       </c>
       <c r="AO157" s="42"/>
       <c r="AP157" s="42"/>
@@ -26500,7 +26508,7 @@
       <c r="BK157" s="62"/>
       <c r="BL157" s="42"/>
     </row>
-    <row r="158" spans="1:64" s="1" customFormat="1" ht="135">
+    <row r="158" spans="1:64" s="1" customFormat="1" ht="86.4">
       <c r="A158" s="7" t="b">
         <v>1</v>
       </c>
@@ -26526,7 +26534,7 @@
         <v>1667</v>
       </c>
       <c r="I158" s="43" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="J158" s="39" t="s">
         <v>1947</v>
@@ -26535,10 +26543,10 @@
         <v>1946</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="N158" s="18"/>
       <c r="O158" s="18"/>
@@ -26656,7 +26664,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="159" spans="1:64" s="1" customFormat="1" ht="135">
+    <row r="159" spans="1:64" s="1" customFormat="1" ht="100.8">
       <c r="A159" s="7" t="b">
         <v>0</v>
       </c>
@@ -26802,7 +26810,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="160" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="160" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A160" s="10"/>
       <c r="B160" s="3"/>
       <c r="C160" s="37"/>
@@ -26862,10 +26870,10 @@
       </c>
       <c r="AL160" s="14"/>
       <c r="AM160" s="14" t="s">
+        <v>2550</v>
+      </c>
+      <c r="AN160" s="14" t="s">
         <v>2551</v>
-      </c>
-      <c r="AN160" s="14" t="s">
-        <v>2552</v>
       </c>
       <c r="AO160" s="42"/>
       <c r="AP160" s="42"/>
@@ -26892,7 +26900,7 @@
       <c r="BK160" s="62"/>
       <c r="BL160" s="42"/>
     </row>
-    <row r="161" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="161" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A161" s="10"/>
       <c r="B161" s="3"/>
       <c r="C161" s="37"/>
@@ -26952,10 +26960,10 @@
       </c>
       <c r="AL161" s="14"/>
       <c r="AM161" s="14" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AN161" s="14" t="s">
         <v>2553</v>
-      </c>
-      <c r="AN161" s="14" t="s">
-        <v>2554</v>
       </c>
       <c r="AO161" s="42"/>
       <c r="AP161" s="42"/>
@@ -26982,7 +26990,7 @@
       <c r="BK161" s="62"/>
       <c r="BL161" s="42"/>
     </row>
-    <row r="162" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="162" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A162" s="10"/>
       <c r="B162" s="3"/>
       <c r="C162" s="37"/>
@@ -27036,10 +27044,10 @@
       <c r="AK162" s="14"/>
       <c r="AL162" s="14"/>
       <c r="AM162" s="14" t="s">
+        <v>2554</v>
+      </c>
+      <c r="AN162" s="14" t="s">
         <v>2555</v>
-      </c>
-      <c r="AN162" s="14" t="s">
-        <v>2556</v>
       </c>
       <c r="AO162" s="42"/>
       <c r="AP162" s="42"/>
@@ -27066,7 +27074,7 @@
       <c r="BK162" s="62"/>
       <c r="BL162" s="42"/>
     </row>
-    <row r="163" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="163" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A163" s="10"/>
       <c r="B163" s="3"/>
       <c r="C163" s="37"/>
@@ -27146,7 +27154,7 @@
       <c r="BK163" s="62"/>
       <c r="BL163" s="42"/>
     </row>
-    <row r="164" spans="1:64" s="1" customFormat="1" ht="90">
+    <row r="164" spans="1:64" s="1" customFormat="1" ht="86.4">
       <c r="A164" s="7" t="b">
         <v>0</v>
       </c>
@@ -27207,7 +27215,7 @@
         <v>826</v>
       </c>
       <c r="Y164" s="46" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="Z164" s="5" t="s">
         <v>1921</v>
@@ -27299,7 +27307,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="165" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="165" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A165" s="10"/>
       <c r="B165" s="3"/>
       <c r="C165" s="13" t="s">
@@ -27368,7 +27376,7 @@
       <c r="AJ165" s="14"/>
       <c r="AK165" s="14"/>
       <c r="AL165" s="14" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="AM165" s="28" t="s">
         <v>1039</v>
@@ -27409,7 +27417,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="166" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="166" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A166" s="7" t="b">
         <v>0</v>
       </c>
@@ -27507,12 +27515,12 @@
       <c r="BK166" s="33"/>
       <c r="BL166" s="33"/>
     </row>
-    <row r="167" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="167" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A167" s="10"/>
       <c r="B167" s="3"/>
       <c r="C167" s="37"/>
       <c r="D167" s="14" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="E167" s="14" t="s">
         <v>2225</v>
@@ -27563,10 +27571,10 @@
       <c r="AK167" s="14"/>
       <c r="AL167" s="14"/>
       <c r="AM167" s="14" t="s">
+        <v>2557</v>
+      </c>
+      <c r="AN167" s="14" t="s">
         <v>2558</v>
-      </c>
-      <c r="AN167" s="14" t="s">
-        <v>2559</v>
       </c>
       <c r="AO167" s="42"/>
       <c r="AP167" s="42"/>
@@ -27593,7 +27601,7 @@
       <c r="BK167" s="62"/>
       <c r="BL167" s="42"/>
     </row>
-    <row r="168" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="168" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A168" s="7" t="b">
         <v>0</v>
       </c>
@@ -27691,7 +27699,7 @@
       <c r="BK168" s="33"/>
       <c r="BL168" s="33"/>
     </row>
-    <row r="169" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="169" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A169" s="10"/>
       <c r="B169" s="3"/>
       <c r="C169" s="37"/>
@@ -27779,15 +27787,15 @@
       <c r="BK169" s="33"/>
       <c r="BL169" s="33"/>
     </row>
-    <row r="170" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="170" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A170" s="10"/>
       <c r="B170" s="3"/>
       <c r="C170" s="37"/>
       <c r="D170" s="14" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E170" s="14" t="s">
         <v>2400</v>
-      </c>
-      <c r="E170" s="14" t="s">
-        <v>2401</v>
       </c>
       <c r="F170" s="14"/>
       <c r="G170" s="14"/>
@@ -27834,13 +27842,13 @@
       <c r="AJ170" s="14"/>
       <c r="AK170" s="14"/>
       <c r="AL170" s="14" t="s">
+        <v>2401</v>
+      </c>
+      <c r="AM170" s="30" t="s">
         <v>2402</v>
       </c>
-      <c r="AM170" s="30" t="s">
+      <c r="AN170" s="14" t="s">
         <v>2403</v>
-      </c>
-      <c r="AN170" s="14" t="s">
-        <v>2404</v>
       </c>
       <c r="AO170" s="42"/>
       <c r="AP170" s="42"/>
@@ -27867,7 +27875,7 @@
       <c r="BK170" s="62"/>
       <c r="BL170" s="42"/>
     </row>
-    <row r="171" spans="1:64" s="11" customFormat="1" ht="120">
+    <row r="171" spans="1:64" s="11" customFormat="1" ht="115.2">
       <c r="A171" s="10"/>
       <c r="B171" s="3"/>
       <c r="C171" s="13" t="s">
@@ -27898,10 +27906,10 @@
         <v>1944</v>
       </c>
       <c r="R171" s="14" t="s">
+        <v>2686</v>
+      </c>
+      <c r="S171" s="14" t="s">
         <v>2687</v>
-      </c>
-      <c r="S171" s="14" t="s">
-        <v>2688</v>
       </c>
       <c r="T171" s="14" t="s">
         <v>1924</v>
@@ -27913,7 +27921,7 @@
       <c r="W171" s="14"/>
       <c r="X171" s="14"/>
       <c r="Y171" s="45" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="Z171" s="14" t="s">
         <v>1921</v>
@@ -27999,7 +28007,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="172" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="172" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A172" s="10"/>
       <c r="B172" s="3"/>
       <c r="C172" s="37"/>
@@ -28059,10 +28067,10 @@
       </c>
       <c r="AL172" s="14"/>
       <c r="AM172" s="14" t="s">
+        <v>2559</v>
+      </c>
+      <c r="AN172" s="14" t="s">
         <v>2560</v>
-      </c>
-      <c r="AN172" s="14" t="s">
-        <v>2561</v>
       </c>
       <c r="AO172" s="42"/>
       <c r="AP172" s="42"/>
@@ -28089,7 +28097,7 @@
       <c r="BK172" s="62"/>
       <c r="BL172" s="42"/>
     </row>
-    <row r="173" spans="1:64" s="1" customFormat="1" ht="30">
+    <row r="173" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A173" s="10"/>
       <c r="B173" s="3"/>
       <c r="C173" s="37"/>
@@ -28143,10 +28151,10 @@
         <v>354</v>
       </c>
       <c r="AM173" s="30" t="s">
+        <v>2392</v>
+      </c>
+      <c r="AN173" s="14" t="s">
         <v>2393</v>
-      </c>
-      <c r="AN173" s="14" t="s">
-        <v>2394</v>
       </c>
       <c r="AO173" s="42"/>
       <c r="AP173" s="42"/>
@@ -28173,7 +28181,7 @@
       <c r="BK173" s="62"/>
       <c r="BL173" s="42"/>
     </row>
-    <row r="174" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="174" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A174" s="7" t="b">
         <v>0</v>
       </c>
@@ -28271,7 +28279,7 @@
       <c r="BK174" s="33"/>
       <c r="BL174" s="33"/>
     </row>
-    <row r="175" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="175" spans="1:64" s="1" customFormat="1" ht="28.8">
       <c r="A175" s="10"/>
       <c r="B175" s="3"/>
       <c r="C175" s="37"/>
@@ -28357,7 +28365,7 @@
       <c r="BK175" s="33"/>
       <c r="BL175" s="33"/>
     </row>
-    <row r="176" spans="1:64" s="1" customFormat="1" ht="45">
+    <row r="176" spans="1:64" s="1" customFormat="1" ht="43.2">
       <c r="A176" s="7" t="b">
         <v>0</v>
       </c>
@@ -28453,12 +28461,12 @@
       <c r="BK176" s="33"/>
       <c r="BL176" s="33"/>
     </row>
-    <row r="177" spans="1:73" s="1" customFormat="1" ht="45">
+    <row r="177" spans="1:73" s="1" customFormat="1" ht="28.8">
       <c r="A177" s="10"/>
       <c r="B177" s="3"/>
       <c r="C177" s="37"/>
       <c r="D177" s="14" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>186</v>
@@ -28467,7 +28475,7 @@
       <c r="G177" s="14"/>
       <c r="H177" s="37"/>
       <c r="I177" s="63" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="J177" s="14" t="s">
         <v>1070</v>
@@ -28502,7 +28510,7 @@
       <c r="AF177" s="14"/>
       <c r="AG177" s="14"/>
       <c r="AH177" s="14" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="AI177" s="14"/>
       <c r="AJ177" s="14"/>
@@ -28511,10 +28519,10 @@
         <v>1104</v>
       </c>
       <c r="AM177" s="30" t="s">
+        <v>2407</v>
+      </c>
+      <c r="AN177" s="14" t="s">
         <v>2408</v>
-      </c>
-      <c r="AN177" s="14" t="s">
-        <v>2409</v>
       </c>
       <c r="AO177" s="42"/>
       <c r="AP177" s="42"/>
@@ -28541,7 +28549,7 @@
       <c r="BK177" s="62"/>
       <c r="BL177" s="42"/>
     </row>
-    <row r="178" spans="1:73" s="1" customFormat="1" ht="135">
+    <row r="178" spans="1:73" s="1" customFormat="1" ht="115.2">
       <c r="A178" s="7" t="b">
         <v>0</v>
       </c>
@@ -28708,7 +28716,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="179" spans="1:73" s="1" customFormat="1" ht="60">
+    <row r="179" spans="1:73" s="1" customFormat="1" ht="57.6">
       <c r="A179" s="7" t="b">
         <v>0</v>
       </c>
@@ -28806,12 +28814,12 @@
       <c r="BK179" s="33"/>
       <c r="BL179" s="33"/>
     </row>
-    <row r="180" spans="1:73" s="1" customFormat="1" ht="45">
+    <row r="180" spans="1:73" s="1" customFormat="1" ht="28.8">
       <c r="A180" s="10"/>
       <c r="B180" s="3"/>
       <c r="C180" s="37"/>
       <c r="D180" s="14" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E180" s="14" t="s">
         <v>2192</v>
@@ -28866,10 +28874,10 @@
       </c>
       <c r="AL180" s="14"/>
       <c r="AM180" s="14" t="s">
+        <v>2565</v>
+      </c>
+      <c r="AN180" s="14" t="s">
         <v>2566</v>
-      </c>
-      <c r="AN180" s="14" t="s">
-        <v>2567</v>
       </c>
       <c r="AO180" s="42"/>
       <c r="AP180" s="42"/>
@@ -28896,17 +28904,17 @@
       <c r="BK180" s="62"/>
       <c r="BL180" s="42"/>
     </row>
-    <row r="181" spans="1:73" s="1" customFormat="1" ht="60">
+    <row r="181" spans="1:73" s="1" customFormat="1" ht="57.6">
       <c r="A181" s="8"/>
       <c r="B181" s="4"/>
       <c r="C181" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D181" s="5" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E181" s="5" t="s">
         <v>2437</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>2438</v>
       </c>
       <c r="F181" s="17"/>
       <c r="G181" s="5"/>
@@ -28960,10 +28968,10 @@
         <v>409</v>
       </c>
       <c r="AM181" s="21" t="s">
+        <v>2438</v>
+      </c>
+      <c r="AN181" s="5" t="s">
         <v>2439</v>
-      </c>
-      <c r="AN181" s="5" t="s">
-        <v>2440</v>
       </c>
       <c r="AO181" s="5"/>
       <c r="AP181" s="5"/>
@@ -28990,14 +28998,14 @@
       <c r="BK181" s="33"/>
       <c r="BL181" s="33"/>
     </row>
-    <row r="182" spans="1:73" s="1" customFormat="1" ht="60">
+    <row r="182" spans="1:73" s="1" customFormat="1" ht="57.6">
       <c r="A182" s="8"/>
       <c r="B182" s="4"/>
       <c r="C182" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>525</v>
@@ -29052,10 +29060,10 @@
         <v>412</v>
       </c>
       <c r="AM182" s="21" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AN182" s="5" t="s">
         <v>2442</v>
-      </c>
-      <c r="AN182" s="5" t="s">
-        <v>2443</v>
       </c>
       <c r="AO182" s="5"/>
       <c r="AP182" s="5"/>
@@ -29082,14 +29090,14 @@
       <c r="BK182" s="33"/>
       <c r="BL182" s="33"/>
     </row>
-    <row r="183" spans="1:73" s="1" customFormat="1" ht="60">
+    <row r="183" spans="1:73" s="1" customFormat="1" ht="57.6">
       <c r="A183" s="7"/>
       <c r="B183" s="2"/>
       <c r="C183" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E183" s="17" t="s">
         <v>65</v>
@@ -29142,10 +29150,10 @@
         <v>242</v>
       </c>
       <c r="AM183" s="17" t="s">
+        <v>2417</v>
+      </c>
+      <c r="AN183" s="17" t="s">
         <v>2418</v>
-      </c>
-      <c r="AN183" s="17" t="s">
-        <v>2419</v>
       </c>
       <c r="AO183" s="17"/>
       <c r="AP183" s="17"/>
@@ -29172,7 +29180,7 @@
       <c r="BK183" s="33"/>
       <c r="BL183" s="33"/>
     </row>
-    <row r="184" spans="1:73" s="1" customFormat="1" ht="45">
+    <row r="184" spans="1:73" s="1" customFormat="1" ht="28.8">
       <c r="A184" s="10"/>
       <c r="B184" s="3"/>
       <c r="C184" s="37"/>
@@ -29226,10 +29234,10 @@
       <c r="AK184" s="14"/>
       <c r="AL184" s="14"/>
       <c r="AM184" s="14" t="s">
+        <v>2567</v>
+      </c>
+      <c r="AN184" s="14" t="s">
         <v>2568</v>
-      </c>
-      <c r="AN184" s="14" t="s">
-        <v>2569</v>
       </c>
       <c r="AO184" s="42"/>
       <c r="AP184" s="42"/>
@@ -29256,7 +29264,7 @@
       <c r="BK184" s="62"/>
       <c r="BL184" s="42"/>
     </row>
-    <row r="185" spans="1:73" s="11" customFormat="1" ht="105">
+    <row r="185" spans="1:73" s="11" customFormat="1" ht="72">
       <c r="A185" s="10"/>
       <c r="B185" s="3"/>
       <c r="C185" s="37" t="s">
@@ -29279,10 +29287,10 @@
         <v>1883</v>
       </c>
       <c r="J185" s="14" t="s">
+        <v>2686</v>
+      </c>
+      <c r="K185" s="14" t="s">
         <v>2687</v>
-      </c>
-      <c r="K185" s="14" t="s">
-        <v>2688</v>
       </c>
       <c r="L185" s="14"/>
       <c r="M185" s="14"/>
@@ -29384,7 +29392,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="186" spans="1:73" s="11" customFormat="1" ht="75">
+    <row r="186" spans="1:73" s="11" customFormat="1" ht="57.6">
       <c r="A186" s="10"/>
       <c r="B186" s="3"/>
       <c r="C186" s="13" t="s">
@@ -29520,7 +29528,7 @@
       <c r="BK186" s="33"/>
       <c r="BL186" s="33"/>
     </row>
-    <row r="187" spans="1:73" s="11" customFormat="1" ht="75">
+    <row r="187" spans="1:73" s="11" customFormat="1" ht="72">
       <c r="A187" s="7" t="b">
         <v>0</v>
       </c>
@@ -29544,16 +29552,16 @@
         <v>1667</v>
       </c>
       <c r="I187" s="43" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="J187" s="54" t="s">
         <v>1915</v>
       </c>
       <c r="K187" s="5" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L187" s="5" t="s">
         <v>2705</v>
-      </c>
-      <c r="L187" s="5" t="s">
-        <v>2706</v>
       </c>
       <c r="M187" s="5" t="s">
         <v>855</v>
@@ -29658,7 +29666,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="188" spans="1:73" s="1" customFormat="1" ht="60">
+    <row r="188" spans="1:73" s="1" customFormat="1" ht="57.6">
       <c r="A188" s="8" t="b">
         <v>0</v>
       </c>
@@ -29756,7 +29764,7 @@
       <c r="BK188" s="33"/>
       <c r="BL188" s="33"/>
     </row>
-    <row r="189" spans="1:73" s="1" customFormat="1" ht="45">
+    <row r="189" spans="1:73" s="1" customFormat="1" ht="28.8">
       <c r="A189" s="10"/>
       <c r="B189" s="3"/>
       <c r="C189" s="37"/>
@@ -29836,7 +29844,7 @@
       <c r="BK189" s="62"/>
       <c r="BL189" s="42"/>
     </row>
-    <row r="190" spans="1:73" s="1" customFormat="1" ht="45">
+    <row r="190" spans="1:73" s="1" customFormat="1" ht="28.8">
       <c r="A190" s="10"/>
       <c r="B190" s="3"/>
       <c r="C190" s="37"/>
@@ -29896,10 +29904,10 @@
       </c>
       <c r="AL190" s="14"/>
       <c r="AM190" s="14" t="s">
+        <v>2569</v>
+      </c>
+      <c r="AN190" s="14" t="s">
         <v>2570</v>
-      </c>
-      <c r="AN190" s="14" t="s">
-        <v>2571</v>
       </c>
       <c r="AO190" s="42"/>
       <c r="AP190" s="42"/>
@@ -29926,7 +29934,7 @@
       <c r="BK190" s="62"/>
       <c r="BL190" s="42"/>
     </row>
-    <row r="191" spans="1:73" ht="60">
+    <row r="191" spans="1:73" ht="57.6">
       <c r="A191" s="7" t="b">
         <v>0</v>
       </c>
@@ -30033,17 +30041,17 @@
       <c r="BT191" s="15"/>
       <c r="BU191" s="15"/>
     </row>
-    <row r="192" spans="1:73" ht="60">
+    <row r="192" spans="1:73" ht="57.6">
       <c r="A192" s="7"/>
       <c r="B192" s="2"/>
       <c r="C192" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D192" s="17" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E192" s="17" t="s">
         <v>2420</v>
-      </c>
-      <c r="E192" s="17" t="s">
-        <v>2421</v>
       </c>
       <c r="F192" s="17"/>
       <c r="G192" s="17"/>
@@ -30093,10 +30101,10 @@
         <v>242</v>
       </c>
       <c r="AM192" s="68" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AN192" s="17" t="s">
         <v>2422</v>
-      </c>
-      <c r="AN192" s="17" t="s">
-        <v>2423</v>
       </c>
       <c r="AO192" s="17"/>
       <c r="AP192" s="17"/>
@@ -30132,7 +30140,7 @@
       <c r="BT192" s="15"/>
       <c r="BU192" s="15"/>
     </row>
-    <row r="193" spans="1:73" ht="45">
+    <row r="193" spans="1:73" ht="28.8">
       <c r="A193" s="10"/>
       <c r="B193" s="3"/>
       <c r="C193" s="37"/>
@@ -30181,19 +30189,19 @@
       <c r="AF193" s="14"/>
       <c r="AG193" s="14"/>
       <c r="AH193" s="14" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="AI193" s="14"/>
       <c r="AJ193" s="14"/>
       <c r="AK193" s="14"/>
       <c r="AL193" s="14" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="AM193" s="14" t="s">
+        <v>2571</v>
+      </c>
+      <c r="AN193" s="14" t="s">
         <v>2572</v>
-      </c>
-      <c r="AN193" s="14" t="s">
-        <v>2573</v>
       </c>
       <c r="AO193" s="42"/>
       <c r="AP193" s="42"/>
@@ -30229,15 +30237,15 @@
       <c r="BT193" s="15"/>
       <c r="BU193" s="15"/>
     </row>
-    <row r="194" spans="1:73" ht="60">
+    <row r="194" spans="1:73" ht="57.6">
       <c r="A194" s="7"/>
       <c r="B194" s="2"/>
       <c r="C194" s="13"/>
       <c r="D194" s="17" t="s">
+        <v>2423</v>
+      </c>
+      <c r="E194" s="17" t="s">
         <v>2424</v>
-      </c>
-      <c r="E194" s="17" t="s">
-        <v>2425</v>
       </c>
       <c r="F194" s="17"/>
       <c r="G194" s="17"/>
@@ -30287,10 +30295,10 @@
         <v>242</v>
       </c>
       <c r="AM194" s="69" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AN194" s="17" t="s">
         <v>2426</v>
-      </c>
-      <c r="AN194" s="17" t="s">
-        <v>2427</v>
       </c>
       <c r="AO194" s="17"/>
       <c r="AP194" s="17"/>
@@ -30326,7 +30334,7 @@
       <c r="BT194" s="15"/>
       <c r="BU194" s="15"/>
     </row>
-    <row r="195" spans="1:73" ht="45">
+    <row r="195" spans="1:73" ht="28.8">
       <c r="A195" s="10"/>
       <c r="B195" s="3"/>
       <c r="C195" s="37"/>
@@ -30380,10 +30388,10 @@
       <c r="AK195" s="14"/>
       <c r="AL195" s="14"/>
       <c r="AM195" s="14" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AN195" s="14" t="s">
         <v>2576</v>
-      </c>
-      <c r="AN195" s="14" t="s">
-        <v>2577</v>
       </c>
       <c r="AO195" s="42"/>
       <c r="AP195" s="42"/>
@@ -30419,7 +30427,7 @@
       <c r="BT195" s="15"/>
       <c r="BU195" s="15"/>
     </row>
-    <row r="196" spans="1:73" ht="45">
+    <row r="196" spans="1:73" ht="28.8">
       <c r="A196" s="10"/>
       <c r="B196" s="3"/>
       <c r="C196" s="37"/>
@@ -30473,10 +30481,10 @@
       <c r="AK196" s="14"/>
       <c r="AL196" s="14"/>
       <c r="AM196" s="14" t="s">
+        <v>2577</v>
+      </c>
+      <c r="AN196" s="14" t="s">
         <v>2578</v>
-      </c>
-      <c r="AN196" s="14" t="s">
-        <v>2579</v>
       </c>
       <c r="AO196" s="42"/>
       <c r="AP196" s="42"/>
@@ -30512,7 +30520,7 @@
       <c r="BT196" s="15"/>
       <c r="BU196" s="15"/>
     </row>
-    <row r="197" spans="1:73" ht="45">
+    <row r="197" spans="1:73" ht="43.2">
       <c r="A197" s="7" t="b">
         <v>0</v>
       </c>
@@ -30619,7 +30627,7 @@
       <c r="BT197" s="15"/>
       <c r="BU197" s="15"/>
     </row>
-    <row r="198" spans="1:73" ht="45">
+    <row r="198" spans="1:73" ht="28.8">
       <c r="A198" s="7" t="b">
         <v>0</v>
       </c>
@@ -30718,7 +30726,7 @@
       <c r="BT198" s="15"/>
       <c r="BU198" s="15"/>
     </row>
-    <row r="199" spans="1:73" ht="60">
+    <row r="199" spans="1:73" ht="57.6">
       <c r="A199" s="8" t="b">
         <v>0</v>
       </c>
@@ -30821,7 +30829,7 @@
       <c r="BT199" s="15"/>
       <c r="BU199" s="15"/>
     </row>
-    <row r="200" spans="1:73" ht="45">
+    <row r="200" spans="1:73" ht="28.8">
       <c r="A200" s="10"/>
       <c r="B200" s="3"/>
       <c r="C200" s="37"/>
@@ -30875,10 +30883,10 @@
       <c r="AK200" s="14"/>
       <c r="AL200" s="14"/>
       <c r="AM200" s="14" t="s">
+        <v>2581</v>
+      </c>
+      <c r="AN200" s="14" t="s">
         <v>2582</v>
-      </c>
-      <c r="AN200" s="14" t="s">
-        <v>2583</v>
       </c>
       <c r="AO200" s="42"/>
       <c r="AP200" s="42"/>
@@ -30914,7 +30922,7 @@
       <c r="BT200" s="15"/>
       <c r="BU200" s="15"/>
     </row>
-    <row r="201" spans="1:73" ht="45">
+    <row r="201" spans="1:73" ht="28.8">
       <c r="A201" s="10"/>
       <c r="B201" s="3"/>
       <c r="C201" s="37"/>
@@ -30968,10 +30976,10 @@
       <c r="AK201" s="14"/>
       <c r="AL201" s="14"/>
       <c r="AM201" s="14" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AN201" s="14" t="s">
         <v>2580</v>
-      </c>
-      <c r="AN201" s="14" t="s">
-        <v>2581</v>
       </c>
       <c r="AO201" s="42"/>
       <c r="AP201" s="42"/>
@@ -31007,7 +31015,7 @@
       <c r="BT201" s="15"/>
       <c r="BU201" s="15"/>
     </row>
-    <row r="202" spans="1:73" ht="45">
+    <row r="202" spans="1:73" ht="28.8">
       <c r="A202" s="7" t="b">
         <v>1</v>
       </c>
@@ -31108,7 +31116,7 @@
       <c r="BT202" s="15"/>
       <c r="BU202" s="15"/>
     </row>
-    <row r="203" spans="1:73" ht="75">
+    <row r="203" spans="1:73" ht="72">
       <c r="A203" s="10"/>
       <c r="B203" s="3"/>
       <c r="C203" s="37" t="s">
@@ -31249,7 +31257,7 @@
       <c r="BT203" s="15"/>
       <c r="BU203" s="15"/>
     </row>
-    <row r="204" spans="1:73" ht="60">
+    <row r="204" spans="1:73" ht="57.6">
       <c r="A204" s="8" t="b">
         <v>0</v>
       </c>
@@ -31352,7 +31360,7 @@
       <c r="BT204" s="15"/>
       <c r="BU204" s="15"/>
     </row>
-    <row r="205" spans="1:73" ht="45">
+    <row r="205" spans="1:73" ht="28.8">
       <c r="A205" s="10"/>
       <c r="B205" s="3"/>
       <c r="C205" s="37"/>
@@ -31449,7 +31457,7 @@
       <c r="BT205" s="15"/>
       <c r="BU205" s="15"/>
     </row>
-    <row r="206" spans="1:73" ht="45">
+    <row r="206" spans="1:73" ht="28.8">
       <c r="A206" s="10"/>
       <c r="B206" s="3"/>
       <c r="C206" s="37"/>
@@ -31503,10 +31511,10 @@
       <c r="AK206" s="14"/>
       <c r="AL206" s="14"/>
       <c r="AM206" s="14" t="s">
+        <v>2583</v>
+      </c>
+      <c r="AN206" s="14" t="s">
         <v>2584</v>
-      </c>
-      <c r="AN206" s="14" t="s">
-        <v>2585</v>
       </c>
       <c r="AO206" s="42"/>
       <c r="AP206" s="42"/>
@@ -31542,7 +31550,7 @@
       <c r="BT206" s="15"/>
       <c r="BU206" s="15"/>
     </row>
-    <row r="207" spans="1:73" ht="45">
+    <row r="207" spans="1:73" ht="28.8">
       <c r="A207" s="10"/>
       <c r="B207" s="3"/>
       <c r="C207" s="37"/>
@@ -31596,10 +31604,10 @@
       <c r="AK207" s="14"/>
       <c r="AL207" s="14"/>
       <c r="AM207" s="14" t="s">
+        <v>2585</v>
+      </c>
+      <c r="AN207" s="14" t="s">
         <v>2586</v>
-      </c>
-      <c r="AN207" s="14" t="s">
-        <v>2587</v>
       </c>
       <c r="AO207" s="42"/>
       <c r="AP207" s="42"/>
@@ -31635,7 +31643,7 @@
       <c r="BT207" s="15"/>
       <c r="BU207" s="15"/>
     </row>
-    <row r="208" spans="1:73" ht="60">
+    <row r="208" spans="1:73" ht="57.6">
       <c r="A208" s="7" t="b">
         <v>0</v>
       </c>
@@ -31788,7 +31796,7 @@
       <c r="BT208" s="15"/>
       <c r="BU208" s="15"/>
     </row>
-    <row r="209" spans="1:73" ht="60">
+    <row r="209" spans="1:73" ht="57.6">
       <c r="A209" s="7" t="b">
         <v>0</v>
       </c>
@@ -31893,7 +31901,7 @@
       <c r="BT209" s="15"/>
       <c r="BU209" s="15"/>
     </row>
-    <row r="210" spans="1:73" ht="45">
+    <row r="210" spans="1:73" ht="28.8">
       <c r="A210" s="10"/>
       <c r="B210" s="3"/>
       <c r="C210" s="37"/>
@@ -31953,10 +31961,10 @@
       </c>
       <c r="AL210" s="14"/>
       <c r="AM210" s="14" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AN210" s="14" t="s">
         <v>2588</v>
-      </c>
-      <c r="AN210" s="14" t="s">
-        <v>2589</v>
       </c>
       <c r="AO210" s="42"/>
       <c r="AP210" s="42"/>
@@ -31992,7 +32000,7 @@
       <c r="BT210" s="15"/>
       <c r="BU210" s="15"/>
     </row>
-    <row r="211" spans="1:73" ht="60">
+    <row r="211" spans="1:73" ht="57.6">
       <c r="A211" s="7"/>
       <c r="B211" s="2"/>
       <c r="C211" s="13" t="s">
@@ -32091,7 +32099,7 @@
       <c r="BT211" s="15"/>
       <c r="BU211" s="15"/>
     </row>
-    <row r="212" spans="1:73" ht="90">
+    <row r="212" spans="1:73" ht="86.4">
       <c r="A212" s="7" t="b">
         <v>0</v>
       </c>
@@ -32141,7 +32149,7 @@
       <c r="W212" s="5"/>
       <c r="X212" s="5"/>
       <c r="Y212" s="46" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="Z212" s="5" t="s">
         <v>1921</v>
@@ -32248,7 +32256,7 @@
       <c r="BT212" s="15"/>
       <c r="BU212" s="15"/>
     </row>
-    <row r="213" spans="1:73" ht="45">
+    <row r="213" spans="1:73" ht="28.8">
       <c r="A213" s="10"/>
       <c r="B213" s="3"/>
       <c r="C213" s="37"/>
@@ -32308,10 +32316,10 @@
       </c>
       <c r="AL213" s="14"/>
       <c r="AM213" s="14" t="s">
+        <v>2589</v>
+      </c>
+      <c r="AN213" s="14" t="s">
         <v>2590</v>
-      </c>
-      <c r="AN213" s="14" t="s">
-        <v>2591</v>
       </c>
       <c r="AO213" s="42"/>
       <c r="AP213" s="42"/>
@@ -32347,7 +32355,7 @@
       <c r="BT213" s="15"/>
       <c r="BU213" s="15"/>
     </row>
-    <row r="214" spans="1:73" ht="45">
+    <row r="214" spans="1:73" ht="28.8">
       <c r="A214" s="10"/>
       <c r="B214" s="3"/>
       <c r="C214" s="37"/>
@@ -32355,7 +32363,7 @@
         <v>2170</v>
       </c>
       <c r="E214" s="14" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="F214" s="14"/>
       <c r="G214" s="14"/>
@@ -32407,10 +32415,10 @@
       </c>
       <c r="AL214" s="14"/>
       <c r="AM214" s="14" t="s">
+        <v>2592</v>
+      </c>
+      <c r="AN214" s="14" t="s">
         <v>2593</v>
-      </c>
-      <c r="AN214" s="14" t="s">
-        <v>2594</v>
       </c>
       <c r="AO214" s="42"/>
       <c r="AP214" s="42"/>
@@ -32446,7 +32454,7 @@
       <c r="BT214" s="15"/>
       <c r="BU214" s="15"/>
     </row>
-    <row r="215" spans="1:73" ht="45">
+    <row r="215" spans="1:73" ht="28.8">
       <c r="A215" s="10"/>
       <c r="B215" s="3"/>
       <c r="C215" s="37"/>
@@ -32500,10 +32508,10 @@
       <c r="AK215" s="14"/>
       <c r="AL215" s="14"/>
       <c r="AM215" s="14" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AN215" s="14" t="s">
         <v>2595</v>
-      </c>
-      <c r="AN215" s="14" t="s">
-        <v>2596</v>
       </c>
       <c r="AO215" s="42"/>
       <c r="AP215" s="42"/>
@@ -32539,7 +32547,7 @@
       <c r="BT215" s="15"/>
       <c r="BU215" s="15"/>
     </row>
-    <row r="216" spans="1:73" ht="60">
+    <row r="216" spans="1:73" ht="57.6">
       <c r="A216" s="8" t="b">
         <v>0</v>
       </c>
@@ -32646,7 +32654,7 @@
       <c r="BT216" s="15"/>
       <c r="BU216" s="15"/>
     </row>
-    <row r="217" spans="1:73" ht="45">
+    <row r="217" spans="1:73" ht="43.2">
       <c r="A217" s="7" t="b">
         <v>0</v>
       </c>
@@ -32749,7 +32757,7 @@
       <c r="BT217" s="15"/>
       <c r="BU217" s="15"/>
     </row>
-    <row r="218" spans="1:73" ht="60">
+    <row r="218" spans="1:73" ht="57.6">
       <c r="A218" s="7"/>
       <c r="B218" s="2"/>
       <c r="C218" s="13" t="s">
@@ -32848,7 +32856,7 @@
       <c r="BT218" s="15"/>
       <c r="BU218" s="15"/>
     </row>
-    <row r="219" spans="1:73" ht="45">
+    <row r="219" spans="1:73" ht="28.8">
       <c r="A219" s="7" t="b">
         <v>0</v>
       </c>
@@ -32951,7 +32959,7 @@
       <c r="BT219" s="15"/>
       <c r="BU219" s="15"/>
     </row>
-    <row r="220" spans="1:73" ht="60">
+    <row r="220" spans="1:73" ht="43.2">
       <c r="A220" s="7" t="b">
         <v>0</v>
       </c>
@@ -33074,7 +33082,7 @@
       <c r="BT220" s="15"/>
       <c r="BU220" s="15"/>
     </row>
-    <row r="221" spans="1:73" ht="45">
+    <row r="221" spans="1:73" ht="28.8">
       <c r="A221" s="10"/>
       <c r="B221" s="3"/>
       <c r="C221" s="37"/>
@@ -33128,10 +33136,10 @@
       <c r="AK221" s="14"/>
       <c r="AL221" s="14"/>
       <c r="AM221" s="14" t="s">
+        <v>2596</v>
+      </c>
+      <c r="AN221" s="14" t="s">
         <v>2597</v>
-      </c>
-      <c r="AN221" s="14" t="s">
-        <v>2598</v>
       </c>
       <c r="AO221" s="42"/>
       <c r="AP221" s="42"/>
@@ -33167,7 +33175,7 @@
       <c r="BT221" s="15"/>
       <c r="BU221" s="15"/>
     </row>
-    <row r="222" spans="1:73" ht="45">
+    <row r="222" spans="1:73" ht="43.2">
       <c r="A222" s="10"/>
       <c r="B222" s="3"/>
       <c r="C222" s="13" t="s">
@@ -33268,7 +33276,7 @@
       <c r="BT222" s="15"/>
       <c r="BU222" s="15"/>
     </row>
-    <row r="223" spans="1:73" ht="60">
+    <row r="223" spans="1:73" ht="57.6">
       <c r="A223" s="10"/>
       <c r="B223" s="3"/>
       <c r="C223" s="37" t="s">
@@ -33367,7 +33375,7 @@
       <c r="BT223" s="15"/>
       <c r="BU223" s="15"/>
     </row>
-    <row r="224" spans="1:73" ht="90">
+    <row r="224" spans="1:73" ht="72">
       <c r="A224" s="7" t="b">
         <v>1</v>
       </c>
@@ -33536,7 +33544,7 @@
       <c r="BT224" s="15"/>
       <c r="BU224" s="15"/>
     </row>
-    <row r="225" spans="1:73" ht="45">
+    <row r="225" spans="1:73" ht="28.8">
       <c r="A225" s="10"/>
       <c r="B225" s="3"/>
       <c r="C225" s="37"/>
@@ -33592,10 +33600,10 @@
       <c r="AK225" s="14"/>
       <c r="AL225" s="14"/>
       <c r="AM225" s="14" t="s">
+        <v>2598</v>
+      </c>
+      <c r="AN225" s="14" t="s">
         <v>2599</v>
-      </c>
-      <c r="AN225" s="14" t="s">
-        <v>2600</v>
       </c>
       <c r="AO225" s="42"/>
       <c r="AP225" s="42"/>
@@ -33631,7 +33639,7 @@
       <c r="BT225" s="15"/>
       <c r="BU225" s="15"/>
     </row>
-    <row r="226" spans="1:73" ht="45">
+    <row r="226" spans="1:73" ht="43.2">
       <c r="A226" s="7" t="b">
         <v>0</v>
       </c>
@@ -33754,7 +33762,7 @@
       <c r="BT226" s="15"/>
       <c r="BU226" s="15"/>
     </row>
-    <row r="227" spans="1:73" ht="60">
+    <row r="227" spans="1:73" ht="57.6">
       <c r="A227" s="7" t="b">
         <v>0</v>
       </c>
@@ -33857,7 +33865,7 @@
       <c r="BT227" s="15"/>
       <c r="BU227" s="15"/>
     </row>
-    <row r="228" spans="1:73" ht="45">
+    <row r="228" spans="1:73" ht="43.2">
       <c r="A228" s="10"/>
       <c r="B228" s="3"/>
       <c r="C228" s="37" t="s">
@@ -33949,7 +33957,7 @@
       <c r="BK228" s="33"/>
       <c r="BL228" s="33"/>
     </row>
-    <row r="229" spans="1:73" ht="60">
+    <row r="229" spans="1:73" ht="57.6">
       <c r="A229" s="8" t="b">
         <v>0</v>
       </c>
@@ -34043,15 +34051,15 @@
       <c r="BK229" s="33"/>
       <c r="BL229" s="33"/>
     </row>
-    <row r="230" spans="1:73" ht="60">
+    <row r="230" spans="1:73" ht="57.6">
       <c r="A230" s="8"/>
       <c r="B230" s="4"/>
       <c r="C230" s="6"/>
       <c r="D230" s="5" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E230" s="5" t="s">
         <v>2428</v>
-      </c>
-      <c r="E230" s="5" t="s">
-        <v>2429</v>
       </c>
       <c r="F230" s="17"/>
       <c r="G230" s="5"/>
@@ -34101,10 +34109,10 @@
         <v>242</v>
       </c>
       <c r="AM230" s="21" t="s">
+        <v>2429</v>
+      </c>
+      <c r="AN230" s="5" t="s">
         <v>2430</v>
-      </c>
-      <c r="AN230" s="5" t="s">
-        <v>2431</v>
       </c>
       <c r="AO230" s="5"/>
       <c r="AP230" s="5"/>
@@ -34131,7 +34139,7 @@
       <c r="BK230" s="33"/>
       <c r="BL230" s="33"/>
     </row>
-    <row r="231" spans="1:73" ht="45">
+    <row r="231" spans="1:73" ht="43.2">
       <c r="A231" s="10"/>
       <c r="B231" s="3"/>
       <c r="C231" s="37" t="s">
@@ -34223,7 +34231,7 @@
       <c r="BK231" s="33"/>
       <c r="BL231" s="33"/>
     </row>
-    <row r="232" spans="1:73" ht="45">
+    <row r="232" spans="1:73" ht="28.8">
       <c r="A232" s="10"/>
       <c r="B232" s="3"/>
       <c r="C232" s="37"/>
@@ -34279,10 +34287,10 @@
       <c r="AK232" s="14"/>
       <c r="AL232" s="14"/>
       <c r="AM232" s="14" t="s">
+        <v>2600</v>
+      </c>
+      <c r="AN232" s="14" t="s">
         <v>2601</v>
-      </c>
-      <c r="AN232" s="14" t="s">
-        <v>2602</v>
       </c>
       <c r="AO232" s="42"/>
       <c r="AP232" s="42"/>
@@ -34309,7 +34317,7 @@
       <c r="BK232" s="62"/>
       <c r="BL232" s="42"/>
     </row>
-    <row r="233" spans="1:73" ht="45">
+    <row r="233" spans="1:73" ht="28.8">
       <c r="A233" s="10"/>
       <c r="B233" s="3"/>
       <c r="C233" s="37"/>
@@ -34371,10 +34379,10 @@
         <v>1524</v>
       </c>
       <c r="AM233" s="14" t="s">
+        <v>2602</v>
+      </c>
+      <c r="AN233" s="14" t="s">
         <v>2603</v>
-      </c>
-      <c r="AN233" s="14" t="s">
-        <v>2604</v>
       </c>
       <c r="AO233" s="14"/>
       <c r="AP233" s="14"/>
@@ -34401,7 +34409,7 @@
       <c r="BK233" s="33"/>
       <c r="BL233" s="33"/>
     </row>
-    <row r="234" spans="1:73" ht="45">
+    <row r="234" spans="1:73" ht="28.8">
       <c r="A234" s="10"/>
       <c r="B234" s="3"/>
       <c r="C234" s="37"/>
@@ -34459,10 +34467,10 @@
       <c r="AK234" s="14"/>
       <c r="AL234" s="14"/>
       <c r="AM234" s="14" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AN234" s="14" t="s">
         <v>2605</v>
-      </c>
-      <c r="AN234" s="14" t="s">
-        <v>2606</v>
       </c>
       <c r="AO234" s="42"/>
       <c r="AP234" s="42"/>
@@ -34489,7 +34497,7 @@
       <c r="BK234" s="62"/>
       <c r="BL234" s="42"/>
     </row>
-    <row r="235" spans="1:73" ht="45">
+    <row r="235" spans="1:73" ht="28.8">
       <c r="A235" s="10"/>
       <c r="B235" s="3"/>
       <c r="C235" s="37"/>
@@ -34575,7 +34583,7 @@
       <c r="BK235" s="62"/>
       <c r="BL235" s="42"/>
     </row>
-    <row r="236" spans="1:73" ht="45">
+    <row r="236" spans="1:73" ht="28.8">
       <c r="A236" s="10"/>
       <c r="B236" s="3"/>
       <c r="C236" s="37"/>
@@ -34637,10 +34645,10 @@
         <v>1524</v>
       </c>
       <c r="AM236" s="14" t="s">
+        <v>2606</v>
+      </c>
+      <c r="AN236" s="14" t="s">
         <v>2607</v>
-      </c>
-      <c r="AN236" s="14" t="s">
-        <v>2608</v>
       </c>
       <c r="AO236" s="14"/>
       <c r="AP236" s="14"/>
@@ -34667,7 +34675,7 @@
       <c r="BK236" s="33"/>
       <c r="BL236" s="33"/>
     </row>
-    <row r="237" spans="1:73" ht="60">
+    <row r="237" spans="1:73" ht="57.6">
       <c r="A237" s="8" t="b">
         <v>0</v>
       </c>
@@ -34730,7 +34738,7 @@
       </c>
       <c r="AK237" s="5"/>
       <c r="AL237" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="AM237" s="5" t="s">
         <v>453</v>
@@ -34763,7 +34771,7 @@
       <c r="BK237" s="33"/>
       <c r="BL237" s="33"/>
     </row>
-    <row r="238" spans="1:73" ht="45">
+    <row r="238" spans="1:73" ht="28.8">
       <c r="A238" s="10"/>
       <c r="B238" s="3"/>
       <c r="C238" s="37"/>
@@ -34817,10 +34825,10 @@
       <c r="AK238" s="14"/>
       <c r="AL238" s="14"/>
       <c r="AM238" s="14" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AN238" s="14" t="s">
         <v>2609</v>
-      </c>
-      <c r="AN238" s="14" t="s">
-        <v>2610</v>
       </c>
       <c r="AO238" s="42"/>
       <c r="AP238" s="42"/>
@@ -34847,17 +34855,17 @@
       <c r="BK238" s="62"/>
       <c r="BL238" s="42"/>
     </row>
-    <row r="239" spans="1:73" ht="60">
+    <row r="239" spans="1:73" ht="57.6">
       <c r="A239" s="10"/>
       <c r="B239" s="3"/>
       <c r="C239" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D239" s="14" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E239" s="14" t="s">
         <v>2445</v>
-      </c>
-      <c r="E239" s="14" t="s">
-        <v>2446</v>
       </c>
       <c r="F239" s="14"/>
       <c r="G239" s="14"/>
@@ -34909,10 +34917,10 @@
         <v>242</v>
       </c>
       <c r="AM239" s="30" t="s">
+        <v>2446</v>
+      </c>
+      <c r="AN239" s="14" t="s">
         <v>2447</v>
-      </c>
-      <c r="AN239" s="14" t="s">
-        <v>2448</v>
       </c>
       <c r="AO239" s="14"/>
       <c r="AP239" s="14"/>
@@ -34939,7 +34947,7 @@
       <c r="BK239" s="33"/>
       <c r="BL239" s="33"/>
     </row>
-    <row r="240" spans="1:73" ht="45">
+    <row r="240" spans="1:73" ht="28.8">
       <c r="A240" s="10"/>
       <c r="B240" s="3"/>
       <c r="C240" s="37"/>
@@ -34999,10 +35007,10 @@
       <c r="AK240" s="14"/>
       <c r="AL240" s="14"/>
       <c r="AM240" s="14" t="s">
+        <v>2610</v>
+      </c>
+      <c r="AN240" s="14" t="s">
         <v>2611</v>
-      </c>
-      <c r="AN240" s="14" t="s">
-        <v>2612</v>
       </c>
       <c r="AO240" s="42"/>
       <c r="AP240" s="42"/>
@@ -35029,7 +35037,7 @@
       <c r="BK240" s="62"/>
       <c r="BL240" s="42"/>
     </row>
-    <row r="241" spans="1:64" ht="45">
+    <row r="241" spans="1:64" ht="28.8">
       <c r="A241" s="10"/>
       <c r="B241" s="3"/>
       <c r="C241" s="37"/>
@@ -35113,7 +35121,7 @@
       <c r="BK241" s="62"/>
       <c r="BL241" s="42"/>
     </row>
-    <row r="242" spans="1:64" ht="60">
+    <row r="242" spans="1:64" ht="57.6">
       <c r="A242" s="7" t="b">
         <v>0</v>
       </c>
@@ -35257,7 +35265,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="243" spans="1:64" ht="90">
+    <row r="243" spans="1:64" ht="72">
       <c r="A243" s="10"/>
       <c r="B243" s="3"/>
       <c r="C243" s="13" t="s">
@@ -35393,7 +35401,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="244" spans="1:64" ht="45">
+    <row r="244" spans="1:64" ht="28.8">
       <c r="A244" s="10"/>
       <c r="B244" s="3"/>
       <c r="C244" s="37"/>
@@ -35473,7 +35481,7 @@
       <c r="BK244" s="62"/>
       <c r="BL244" s="42"/>
     </row>
-    <row r="245" spans="1:64" ht="45">
+    <row r="245" spans="1:64" ht="43.2">
       <c r="A245" s="10"/>
       <c r="B245" s="3"/>
       <c r="C245" s="37" t="s">
@@ -35565,7 +35573,7 @@
       <c r="BK245" s="33"/>
       <c r="BL245" s="33"/>
     </row>
-    <row r="246" spans="1:64" ht="60">
+    <row r="246" spans="1:64" ht="43.2">
       <c r="A246" s="7" t="b">
         <v>0</v>
       </c>
@@ -35693,7 +35701,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="247" spans="1:64" ht="60">
+    <row r="247" spans="1:64" ht="57.6">
       <c r="A247" s="7" t="b">
         <v>0</v>
       </c>
@@ -35835,7 +35843,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="248" spans="1:64" ht="45">
+    <row r="248" spans="1:64" ht="28.8">
       <c r="A248" s="10"/>
       <c r="B248" s="3"/>
       <c r="C248" s="37"/>
@@ -35923,7 +35931,7 @@
       <c r="BK248" s="33"/>
       <c r="BL248" s="33"/>
     </row>
-    <row r="249" spans="1:64" ht="90">
+    <row r="249" spans="1:64" ht="86.4">
       <c r="A249" s="10"/>
       <c r="B249" s="3"/>
       <c r="C249" s="37" t="s">
@@ -35946,16 +35954,16 @@
         <v>1868</v>
       </c>
       <c r="J249" s="14" t="s">
+        <v>2706</v>
+      </c>
+      <c r="K249" s="14" t="s">
+        <v>2704</v>
+      </c>
+      <c r="L249" s="14" t="s">
+        <v>2705</v>
+      </c>
+      <c r="M249" s="14" t="s">
         <v>2707</v>
-      </c>
-      <c r="K249" s="14" t="s">
-        <v>2705</v>
-      </c>
-      <c r="L249" s="14" t="s">
-        <v>2706</v>
-      </c>
-      <c r="M249" s="14" t="s">
-        <v>2708</v>
       </c>
       <c r="N249" s="14"/>
       <c r="O249" s="14"/>
@@ -36085,7 +36093,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="250" spans="1:64" ht="135">
+    <row r="250" spans="1:64" ht="100.8">
       <c r="A250" s="10"/>
       <c r="B250" s="3"/>
       <c r="C250" s="37" t="s">
@@ -36223,7 +36231,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="251" spans="1:64" ht="45">
+    <row r="251" spans="1:64" ht="28.8">
       <c r="A251" s="10"/>
       <c r="B251" s="3"/>
       <c r="C251" s="37"/>
@@ -36283,10 +36291,10 @@
       </c>
       <c r="AL251" s="14"/>
       <c r="AM251" s="14" t="s">
+        <v>2612</v>
+      </c>
+      <c r="AN251" s="14" t="s">
         <v>2613</v>
-      </c>
-      <c r="AN251" s="14" t="s">
-        <v>2614</v>
       </c>
       <c r="AO251" s="42"/>
       <c r="AP251" s="42"/>
@@ -36313,7 +36321,7 @@
       <c r="BK251" s="62"/>
       <c r="BL251" s="42"/>
     </row>
-    <row r="252" spans="1:64" ht="60">
+    <row r="252" spans="1:64" ht="57.6">
       <c r="A252" s="10"/>
       <c r="B252" s="3"/>
       <c r="C252" s="37"/>
@@ -36368,17 +36376,17 @@
         <v>231</v>
       </c>
       <c r="AJ252" s="14" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="AK252" s="14" t="s">
         <v>1528</v>
       </c>
       <c r="AL252" s="14"/>
       <c r="AM252" s="14" t="s">
+        <v>2614</v>
+      </c>
+      <c r="AN252" s="14" t="s">
         <v>2615</v>
-      </c>
-      <c r="AN252" s="14" t="s">
-        <v>2616</v>
       </c>
       <c r="AO252" s="42"/>
       <c r="AP252" s="42"/>
@@ -36405,7 +36413,7 @@
       <c r="BK252" s="62"/>
       <c r="BL252" s="42"/>
     </row>
-    <row r="253" spans="1:64" ht="45">
+    <row r="253" spans="1:64" ht="28.8">
       <c r="A253" s="10"/>
       <c r="B253" s="3"/>
       <c r="C253" s="37"/>
@@ -36459,10 +36467,10 @@
       <c r="AK253" s="14"/>
       <c r="AL253" s="14"/>
       <c r="AM253" s="14" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AN253" s="14" t="s">
         <v>2618</v>
-      </c>
-      <c r="AN253" s="14" t="s">
-        <v>2619</v>
       </c>
       <c r="AO253" s="42"/>
       <c r="AP253" s="42"/>
@@ -36489,7 +36497,7 @@
       <c r="BK253" s="62"/>
       <c r="BL253" s="42"/>
     </row>
-    <row r="254" spans="1:64" ht="45">
+    <row r="254" spans="1:64" ht="28.8">
       <c r="A254" s="7" t="b">
         <v>1</v>
       </c>
@@ -36581,7 +36589,7 @@
       <c r="BK254" s="33"/>
       <c r="BL254" s="33"/>
     </row>
-    <row r="255" spans="1:64" ht="150">
+    <row r="255" spans="1:64" ht="115.2">
       <c r="A255" s="7" t="b">
         <v>0</v>
       </c>
@@ -36727,7 +36735,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="256" spans="1:64" ht="45">
+    <row r="256" spans="1:64" ht="28.8">
       <c r="A256" s="10"/>
       <c r="B256" s="3"/>
       <c r="C256" s="37"/>
@@ -36741,7 +36749,7 @@
       <c r="G256" s="14"/>
       <c r="H256" s="37"/>
       <c r="I256" s="63" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="J256" s="14" t="s">
         <v>1213</v>
@@ -36787,10 +36795,10 @@
       </c>
       <c r="AL256" s="14"/>
       <c r="AM256" s="14" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AN256" s="14" t="s">
         <v>2620</v>
-      </c>
-      <c r="AN256" s="14" t="s">
-        <v>2621</v>
       </c>
       <c r="AO256" s="42"/>
       <c r="AP256" s="42"/>
@@ -36817,7 +36825,7 @@
       <c r="BK256" s="62"/>
       <c r="BL256" s="42"/>
     </row>
-    <row r="257" spans="1:64" ht="90">
+    <row r="257" spans="1:64" ht="86.4">
       <c r="A257" s="7" t="b">
         <v>0</v>
       </c>
@@ -36931,7 +36939,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="258" spans="1:64" ht="45">
+    <row r="258" spans="1:64" ht="28.8">
       <c r="A258" s="10"/>
       <c r="B258" s="3"/>
       <c r="C258" s="37"/>
@@ -36985,10 +36993,10 @@
       <c r="AK258" s="14"/>
       <c r="AL258" s="14"/>
       <c r="AM258" s="14" t="s">
+        <v>2621</v>
+      </c>
+      <c r="AN258" s="14" t="s">
         <v>2622</v>
-      </c>
-      <c r="AN258" s="14" t="s">
-        <v>2623</v>
       </c>
       <c r="AO258" s="42"/>
       <c r="AP258" s="42"/>
@@ -37015,7 +37023,7 @@
       <c r="BK258" s="62"/>
       <c r="BL258" s="42"/>
     </row>
-    <row r="259" spans="1:64" ht="60">
+    <row r="259" spans="1:64" ht="57.6">
       <c r="A259" s="7" t="b">
         <v>0</v>
       </c>
@@ -37074,16 +37082,16 @@
         <v>963</v>
       </c>
       <c r="AB259" s="42" t="s">
+        <v>2708</v>
+      </c>
+      <c r="AC259" s="42" t="s">
+        <v>2704</v>
+      </c>
+      <c r="AD259" s="42" t="s">
         <v>2709</v>
       </c>
-      <c r="AC259" s="42" t="s">
-        <v>2705</v>
-      </c>
-      <c r="AD259" s="42" t="s">
+      <c r="AE259" s="42" t="s">
         <v>2710</v>
-      </c>
-      <c r="AE259" s="42" t="s">
-        <v>2711</v>
       </c>
       <c r="AF259" s="5"/>
       <c r="AG259" s="5"/>
@@ -37163,7 +37171,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="260" spans="1:64" ht="45">
+    <row r="260" spans="1:64" ht="28.8">
       <c r="A260" s="10"/>
       <c r="B260" s="3"/>
       <c r="C260" s="37"/>
@@ -37221,10 +37229,10 @@
       <c r="AK260" s="14"/>
       <c r="AL260" s="14"/>
       <c r="AM260" s="14" t="s">
+        <v>2623</v>
+      </c>
+      <c r="AN260" s="14" t="s">
         <v>2624</v>
-      </c>
-      <c r="AN260" s="14" t="s">
-        <v>2625</v>
       </c>
       <c r="AO260" s="42"/>
       <c r="AP260" s="42"/>
@@ -37251,7 +37259,7 @@
       <c r="BK260" s="62"/>
       <c r="BL260" s="42"/>
     </row>
-    <row r="261" spans="1:64" ht="45">
+    <row r="261" spans="1:64" ht="28.8">
       <c r="A261" s="10"/>
       <c r="B261" s="3"/>
       <c r="C261" s="37"/>
@@ -37259,7 +37267,7 @@
         <v>2357</v>
       </c>
       <c r="E261" s="14" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="F261" s="14"/>
       <c r="G261" s="14"/>
@@ -37305,10 +37313,10 @@
       <c r="AK261" s="14"/>
       <c r="AL261" s="14"/>
       <c r="AM261" s="14" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AN261" s="14" t="s">
         <v>2627</v>
-      </c>
-      <c r="AN261" s="14" t="s">
-        <v>2628</v>
       </c>
       <c r="AO261" s="42"/>
       <c r="AP261" s="42"/>
@@ -37335,7 +37343,7 @@
       <c r="BK261" s="62"/>
       <c r="BL261" s="42"/>
     </row>
-    <row r="262" spans="1:64" ht="45">
+    <row r="262" spans="1:64" ht="28.8">
       <c r="A262" s="10"/>
       <c r="B262" s="3"/>
       <c r="C262" s="37"/>
@@ -37389,10 +37397,10 @@
       <c r="AK262" s="14"/>
       <c r="AL262" s="14"/>
       <c r="AM262" s="14" t="s">
+        <v>2628</v>
+      </c>
+      <c r="AN262" s="14" t="s">
         <v>2629</v>
-      </c>
-      <c r="AN262" s="14" t="s">
-        <v>2630</v>
       </c>
       <c r="AO262" s="42"/>
       <c r="AP262" s="42"/>
@@ -37419,7 +37427,7 @@
       <c r="BK262" s="62"/>
       <c r="BL262" s="42"/>
     </row>
-    <row r="263" spans="1:64" ht="75">
+    <row r="263" spans="1:64" ht="57.6">
       <c r="A263" s="7" t="b">
         <v>1</v>
       </c>
@@ -37452,7 +37460,7 @@
         <v>1916</v>
       </c>
       <c r="L263" s="5" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="M263" s="5"/>
       <c r="N263" s="5"/>
@@ -37571,7 +37579,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="264" spans="1:64" ht="45">
+    <row r="264" spans="1:64" ht="28.8">
       <c r="A264" s="10"/>
       <c r="B264" s="3"/>
       <c r="C264" s="37"/>
@@ -37657,7 +37665,7 @@
       <c r="BK264" s="33"/>
       <c r="BL264" s="33"/>
     </row>
-    <row r="265" spans="1:64" ht="60">
+    <row r="265" spans="1:64" ht="57.6">
       <c r="A265" s="8" t="b">
         <v>0</v>
       </c>
@@ -37751,7 +37759,7 @@
       <c r="BK265" s="33"/>
       <c r="BL265" s="33"/>
     </row>
-    <row r="266" spans="1:64" ht="45">
+    <row r="266" spans="1:64" ht="43.2">
       <c r="A266" s="10"/>
       <c r="B266" s="3"/>
       <c r="C266" s="37" t="s">
@@ -37843,7 +37851,7 @@
       <c r="BK266" s="33"/>
       <c r="BL266" s="33"/>
     </row>
-    <row r="267" spans="1:64" ht="105">
+    <row r="267" spans="1:64" ht="86.4">
       <c r="A267" s="7" t="b">
         <v>0</v>
       </c>
@@ -37981,7 +37989,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="268" spans="1:64" ht="45">
+    <row r="268" spans="1:64" ht="28.8">
       <c r="A268" s="10"/>
       <c r="B268" s="3"/>
       <c r="C268" s="37"/>
@@ -38061,15 +38069,15 @@
       <c r="BK268" s="62"/>
       <c r="BL268" s="42"/>
     </row>
-    <row r="269" spans="1:64" ht="30">
+    <row r="269" spans="1:64" ht="28.8">
       <c r="A269" s="10"/>
       <c r="B269" s="3"/>
       <c r="C269" s="37"/>
       <c r="D269" s="14" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E269" s="14" t="s">
         <v>2365</v>
-      </c>
-      <c r="E269" s="14" t="s">
-        <v>2366</v>
       </c>
       <c r="F269" s="14"/>
       <c r="G269" s="14" t="s">
@@ -38112,19 +38120,19 @@
         <v>1310</v>
       </c>
       <c r="AH269" s="14" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="AI269" s="14"/>
       <c r="AJ269" s="14"/>
       <c r="AK269" s="14"/>
       <c r="AL269" s="14" t="s">
+        <v>2388</v>
+      </c>
+      <c r="AM269" s="30" t="s">
         <v>2389</v>
       </c>
-      <c r="AM269" s="30" t="s">
+      <c r="AN269" s="14" t="s">
         <v>2390</v>
-      </c>
-      <c r="AN269" s="14" t="s">
-        <v>2391</v>
       </c>
       <c r="AO269" s="42"/>
       <c r="AP269" s="42"/>
@@ -38151,7 +38159,7 @@
       <c r="BK269" s="62"/>
       <c r="BL269" s="42"/>
     </row>
-    <row r="270" spans="1:64" ht="45">
+    <row r="270" spans="1:64" ht="28.8">
       <c r="A270" s="10"/>
       <c r="B270" s="3"/>
       <c r="C270" s="37"/>
@@ -38205,10 +38213,10 @@
       <c r="AK270" s="14"/>
       <c r="AL270" s="14"/>
       <c r="AM270" s="14" t="s">
+        <v>2630</v>
+      </c>
+      <c r="AN270" s="14" t="s">
         <v>2631</v>
-      </c>
-      <c r="AN270" s="14" t="s">
-        <v>2632</v>
       </c>
       <c r="AO270" s="42"/>
       <c r="AP270" s="42"/>
@@ -38235,7 +38243,7 @@
       <c r="BK270" s="62"/>
       <c r="BL270" s="42"/>
     </row>
-    <row r="271" spans="1:64" ht="60">
+    <row r="271" spans="1:64" ht="57.6">
       <c r="A271" s="7" t="b">
         <v>0</v>
       </c>
@@ -38329,7 +38337,7 @@
       <c r="BK271" s="33"/>
       <c r="BL271" s="33"/>
     </row>
-    <row r="272" spans="1:64" ht="45">
+    <row r="272" spans="1:64" ht="28.8">
       <c r="A272" s="10"/>
       <c r="B272" s="3"/>
       <c r="C272" s="37"/>
@@ -38421,12 +38429,12 @@
       <c r="BK272" s="33"/>
       <c r="BL272" s="33"/>
     </row>
-    <row r="273" spans="1:64" ht="30">
+    <row r="273" spans="1:64" ht="28.8">
       <c r="A273" s="7"/>
       <c r="B273" s="2"/>
       <c r="C273" s="6"/>
       <c r="D273" s="5" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>1530</v>
@@ -38483,10 +38491,10 @@
         <v>548</v>
       </c>
       <c r="AM273" s="21" t="s">
+        <v>2414</v>
+      </c>
+      <c r="AN273" s="5" t="s">
         <v>2415</v>
-      </c>
-      <c r="AN273" s="5" t="s">
-        <v>2416</v>
       </c>
       <c r="AO273" s="5"/>
       <c r="AP273" s="5"/>
@@ -38513,7 +38521,7 @@
       <c r="BK273" s="33"/>
       <c r="BL273" s="33"/>
     </row>
-    <row r="274" spans="1:64" ht="60">
+    <row r="274" spans="1:64" ht="43.2">
       <c r="A274" s="7" t="b">
         <v>0</v>
       </c>
@@ -38635,7 +38643,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="275" spans="1:64" ht="150">
+    <row r="275" spans="1:64" ht="115.2">
       <c r="A275" s="7" t="b">
         <v>0</v>
       </c>
@@ -38795,7 +38803,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="276" spans="1:64" ht="105">
+    <row r="276" spans="1:64" ht="72">
       <c r="A276" s="7" t="b">
         <v>0</v>
       </c>
@@ -38935,7 +38943,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="277" spans="1:64" ht="45">
+    <row r="277" spans="1:64" ht="28.8">
       <c r="A277" s="10"/>
       <c r="B277" s="3"/>
       <c r="C277" s="37"/>
@@ -38995,10 +39003,10 @@
       </c>
       <c r="AL277" s="14"/>
       <c r="AM277" s="14" t="s">
+        <v>2632</v>
+      </c>
+      <c r="AN277" s="14" t="s">
         <v>2633</v>
-      </c>
-      <c r="AN277" s="14" t="s">
-        <v>2634</v>
       </c>
       <c r="AO277" s="42"/>
       <c r="AP277" s="42"/>
@@ -39025,7 +39033,7 @@
       <c r="BK277" s="62"/>
       <c r="BL277" s="42"/>
     </row>
-    <row r="278" spans="1:64" ht="45">
+    <row r="278" spans="1:64" ht="28.8">
       <c r="A278" s="10"/>
       <c r="B278" s="3"/>
       <c r="C278" s="37"/>
@@ -39085,10 +39093,10 @@
       </c>
       <c r="AL278" s="14"/>
       <c r="AM278" s="14" t="s">
+        <v>2634</v>
+      </c>
+      <c r="AN278" s="14" t="s">
         <v>2635</v>
-      </c>
-      <c r="AN278" s="14" t="s">
-        <v>2636</v>
       </c>
       <c r="AO278" s="42"/>
       <c r="AP278" s="42"/>
@@ -39115,7 +39123,7 @@
       <c r="BK278" s="62"/>
       <c r="BL278" s="42"/>
     </row>
-    <row r="279" spans="1:64" ht="105">
+    <row r="279" spans="1:64" ht="72">
       <c r="A279" s="7" t="b">
         <v>0</v>
       </c>
@@ -39271,7 +39279,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="280" spans="1:64" ht="90">
+    <row r="280" spans="1:64" ht="72">
       <c r="A280" s="7" t="b">
         <v>0</v>
       </c>
@@ -39429,7 +39437,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="281" spans="1:64" ht="45">
+    <row r="281" spans="1:64" ht="28.8">
       <c r="A281" s="7" t="b">
         <v>1</v>
       </c>
@@ -39521,7 +39529,7 @@
       <c r="BK281" s="33"/>
       <c r="BL281" s="33"/>
     </row>
-    <row r="282" spans="1:64" ht="60">
+    <row r="282" spans="1:64" ht="57.6">
       <c r="A282" s="7" t="b">
         <v>0</v>
       </c>
@@ -39659,7 +39667,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="283" spans="1:64" ht="45">
+    <row r="283" spans="1:64" ht="43.2">
       <c r="A283" s="10"/>
       <c r="B283" s="3"/>
       <c r="C283" s="37" t="s">
@@ -39769,7 +39777,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="284" spans="1:64" ht="105">
+    <row r="284" spans="1:64" ht="72">
       <c r="A284" s="7" t="b">
         <v>0</v>
       </c>
@@ -39923,7 +39931,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="285" spans="1:64" ht="60">
+    <row r="285" spans="1:64" ht="57.6">
       <c r="A285" s="10"/>
       <c r="B285" s="3"/>
       <c r="C285" s="37"/>
@@ -39985,10 +39993,10 @@
         <v>1524</v>
       </c>
       <c r="AM285" s="14" t="s">
+        <v>2636</v>
+      </c>
+      <c r="AN285" s="14" t="s">
         <v>2637</v>
-      </c>
-      <c r="AN285" s="14" t="s">
-        <v>2638</v>
       </c>
       <c r="AO285" s="14"/>
       <c r="AP285" s="14"/>
@@ -40015,7 +40023,7 @@
       <c r="BK285" s="33"/>
       <c r="BL285" s="33"/>
     </row>
-    <row r="286" spans="1:64" ht="45">
+    <row r="286" spans="1:64" ht="28.8">
       <c r="A286" s="10"/>
       <c r="B286" s="3"/>
       <c r="C286" s="37"/>
@@ -40095,7 +40103,7 @@
       <c r="BK286" s="62"/>
       <c r="BL286" s="42"/>
     </row>
-    <row r="287" spans="1:64" ht="60">
+    <row r="287" spans="1:64" ht="57.6">
       <c r="A287" s="8"/>
       <c r="B287" s="4"/>
       <c r="C287" s="6"/>
@@ -40153,10 +40161,10 @@
         <v>242</v>
       </c>
       <c r="AM287" s="21" t="s">
+        <v>2431</v>
+      </c>
+      <c r="AN287" s="5" t="s">
         <v>2432</v>
-      </c>
-      <c r="AN287" s="5" t="s">
-        <v>2433</v>
       </c>
       <c r="AO287" s="5"/>
       <c r="AP287" s="5"/>
@@ -40183,7 +40191,7 @@
       <c r="BK287" s="33"/>
       <c r="BL287" s="33"/>
     </row>
-    <row r="288" spans="1:64" ht="45">
+    <row r="288" spans="1:64" ht="28.8">
       <c r="A288" s="10"/>
       <c r="B288" s="3"/>
       <c r="C288" s="37"/>
@@ -40243,10 +40251,10 @@
       </c>
       <c r="AL288" s="14"/>
       <c r="AM288" s="14" t="s">
+        <v>2638</v>
+      </c>
+      <c r="AN288" s="14" t="s">
         <v>2639</v>
-      </c>
-      <c r="AN288" s="14" t="s">
-        <v>2640</v>
       </c>
       <c r="AO288" s="42"/>
       <c r="AP288" s="42"/>
@@ -40273,7 +40281,7 @@
       <c r="BK288" s="62"/>
       <c r="BL288" s="42"/>
     </row>
-    <row r="289" spans="1:64" ht="45">
+    <row r="289" spans="1:64" ht="43.2">
       <c r="A289" s="10"/>
       <c r="B289" s="3"/>
       <c r="C289" s="37" t="s">
@@ -40365,7 +40373,7 @@
       <c r="BK289" s="33"/>
       <c r="BL289" s="33"/>
     </row>
-    <row r="290" spans="1:64" ht="45">
+    <row r="290" spans="1:64" ht="28.8">
       <c r="A290" s="10"/>
       <c r="B290" s="3"/>
       <c r="C290" s="37"/>
@@ -40425,10 +40433,10 @@
       </c>
       <c r="AL290" s="14"/>
       <c r="AM290" s="14" t="s">
+        <v>2640</v>
+      </c>
+      <c r="AN290" s="14" t="s">
         <v>2641</v>
-      </c>
-      <c r="AN290" s="14" t="s">
-        <v>2642</v>
       </c>
       <c r="AO290" s="14"/>
       <c r="AP290" s="14"/>
@@ -40455,7 +40463,7 @@
       <c r="BK290" s="33"/>
       <c r="BL290" s="33"/>
     </row>
-    <row r="291" spans="1:64" ht="120">
+    <row r="291" spans="1:64" ht="100.8">
       <c r="A291" s="7" t="b">
         <v>0</v>
       </c>
@@ -40591,7 +40599,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="292" spans="1:64" ht="45">
+    <row r="292" spans="1:64" ht="43.2">
       <c r="A292" s="7"/>
       <c r="B292" s="2"/>
       <c r="C292" s="13" t="s">
@@ -40683,7 +40691,7 @@
       <c r="BK292" s="33"/>
       <c r="BL292" s="33"/>
     </row>
-    <row r="293" spans="1:64" ht="90">
+    <row r="293" spans="1:64" ht="86.4">
       <c r="A293" s="7" t="b">
         <v>0</v>
       </c>
@@ -40747,7 +40755,7 @@
         <v>1918</v>
       </c>
       <c r="Y293" s="46" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="Z293" s="5" t="s">
         <v>1919</v>
@@ -40845,7 +40853,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="294" spans="1:64" ht="60">
+    <row r="294" spans="1:64" ht="57.6">
       <c r="A294" s="7" t="b">
         <v>0</v>
       </c>
@@ -40941,7 +40949,7 @@
       <c r="BK294" s="33"/>
       <c r="BL294" s="33"/>
     </row>
-    <row r="295" spans="1:64" ht="45">
+    <row r="295" spans="1:64" ht="28.8">
       <c r="A295" s="10"/>
       <c r="B295" s="3"/>
       <c r="C295" s="37"/>
@@ -41001,10 +41009,10 @@
       </c>
       <c r="AL295" s="14"/>
       <c r="AM295" s="14" t="s">
+        <v>2642</v>
+      </c>
+      <c r="AN295" s="14" t="s">
         <v>2643</v>
-      </c>
-      <c r="AN295" s="14" t="s">
-        <v>2644</v>
       </c>
       <c r="AO295" s="42"/>
       <c r="AP295" s="42"/>
@@ -41031,7 +41039,7 @@
       <c r="BK295" s="62"/>
       <c r="BL295" s="42"/>
     </row>
-    <row r="296" spans="1:64" ht="60">
+    <row r="296" spans="1:64" ht="57.6">
       <c r="A296" s="10"/>
       <c r="B296" s="3"/>
       <c r="C296" s="37"/>
@@ -41119,7 +41127,7 @@
       <c r="BK296" s="33"/>
       <c r="BL296" s="33"/>
     </row>
-    <row r="297" spans="1:64" ht="45">
+    <row r="297" spans="1:64" ht="28.8">
       <c r="A297" s="10"/>
       <c r="B297" s="3"/>
       <c r="C297" s="37"/>
@@ -41179,10 +41187,10 @@
       </c>
       <c r="AL297" s="14"/>
       <c r="AM297" s="14" t="s">
+        <v>2644</v>
+      </c>
+      <c r="AN297" s="14" t="s">
         <v>2645</v>
-      </c>
-      <c r="AN297" s="14" t="s">
-        <v>2646</v>
       </c>
       <c r="AO297" s="42"/>
       <c r="AP297" s="42"/>
@@ -41209,7 +41217,7 @@
       <c r="BK297" s="62"/>
       <c r="BL297" s="42"/>
     </row>
-    <row r="298" spans="1:64" ht="45">
+    <row r="298" spans="1:64" ht="43.2">
       <c r="A298" s="7"/>
       <c r="B298" s="2"/>
       <c r="C298" s="13" t="s">
@@ -41301,7 +41309,7 @@
       <c r="BK298" s="33"/>
       <c r="BL298" s="33"/>
     </row>
-    <row r="299" spans="1:64" ht="45">
+    <row r="299" spans="1:64" ht="28.8">
       <c r="A299" s="10"/>
       <c r="B299" s="3"/>
       <c r="C299" s="37"/>
@@ -41355,10 +41363,10 @@
       <c r="AK299" s="14"/>
       <c r="AL299" s="14"/>
       <c r="AM299" s="14" t="s">
+        <v>2646</v>
+      </c>
+      <c r="AN299" s="14" t="s">
         <v>2647</v>
-      </c>
-      <c r="AN299" s="14" t="s">
-        <v>2648</v>
       </c>
       <c r="AO299" s="42"/>
       <c r="AP299" s="42"/>
@@ -41385,7 +41393,7 @@
       <c r="BK299" s="62"/>
       <c r="BL299" s="42"/>
     </row>
-    <row r="300" spans="1:64" ht="45">
+    <row r="300" spans="1:64" ht="28.8">
       <c r="A300" s="10"/>
       <c r="B300" s="3"/>
       <c r="C300" s="37"/>
@@ -41439,10 +41447,10 @@
       <c r="AK300" s="14"/>
       <c r="AL300" s="14"/>
       <c r="AM300" s="14" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AN300" s="14" t="s">
         <v>2649</v>
-      </c>
-      <c r="AN300" s="14" t="s">
-        <v>2650</v>
       </c>
       <c r="AO300" s="42"/>
       <c r="AP300" s="42"/>
@@ -41469,7 +41477,7 @@
       <c r="BK300" s="62"/>
       <c r="BL300" s="42"/>
     </row>
-    <row r="301" spans="1:64" ht="45">
+    <row r="301" spans="1:64" ht="43.2">
       <c r="A301" s="10"/>
       <c r="B301" s="3"/>
       <c r="C301" s="37" t="s">
@@ -41561,7 +41569,7 @@
       <c r="BK301" s="33"/>
       <c r="BL301" s="33"/>
     </row>
-    <row r="302" spans="1:64" ht="60">
+    <row r="302" spans="1:64" ht="57.6">
       <c r="A302" s="10"/>
       <c r="B302" s="3"/>
       <c r="C302" s="37"/>
@@ -41625,10 +41633,10 @@
         <v>275</v>
       </c>
       <c r="AM302" s="14" t="s">
+        <v>2650</v>
+      </c>
+      <c r="AN302" s="14" t="s">
         <v>2651</v>
-      </c>
-      <c r="AN302" s="14" t="s">
-        <v>2652</v>
       </c>
       <c r="AO302" s="14"/>
       <c r="AP302" s="14"/>
@@ -41655,7 +41663,7 @@
       <c r="BK302" s="33"/>
       <c r="BL302" s="33"/>
     </row>
-    <row r="303" spans="1:64" ht="60">
+    <row r="303" spans="1:64" ht="57.6">
       <c r="A303" s="8" t="b">
         <v>0</v>
       </c>
@@ -41751,7 +41759,7 @@
       <c r="BK303" s="33"/>
       <c r="BL303" s="33"/>
     </row>
-    <row r="304" spans="1:64" ht="45">
+    <row r="304" spans="1:64" ht="43.2">
       <c r="A304" s="10"/>
       <c r="B304" s="3"/>
       <c r="C304" s="37" t="s">
@@ -41843,7 +41851,7 @@
       <c r="BK304" s="33"/>
       <c r="BL304" s="33"/>
     </row>
-    <row r="305" spans="1:64" ht="45">
+    <row r="305" spans="1:64" ht="28.8">
       <c r="A305" s="10"/>
       <c r="B305" s="3"/>
       <c r="C305" s="37"/>
@@ -41897,10 +41905,10 @@
       <c r="AK305" s="14"/>
       <c r="AL305" s="14"/>
       <c r="AM305" s="14" t="s">
+        <v>2652</v>
+      </c>
+      <c r="AN305" s="14" t="s">
         <v>2653</v>
-      </c>
-      <c r="AN305" s="14" t="s">
-        <v>2654</v>
       </c>
       <c r="AO305" s="42"/>
       <c r="AP305" s="42"/>
@@ -41927,7 +41935,7 @@
       <c r="BK305" s="62"/>
       <c r="BL305" s="42"/>
     </row>
-    <row r="306" spans="1:64" ht="45">
+    <row r="306" spans="1:64" ht="28.8">
       <c r="A306" s="10"/>
       <c r="B306" s="3"/>
       <c r="C306" s="37"/>
@@ -42015,7 +42023,7 @@
       <c r="BK306" s="33"/>
       <c r="BL306" s="33"/>
     </row>
-    <row r="307" spans="1:64" ht="210">
+    <row r="307" spans="1:64" ht="172.8">
       <c r="A307" s="10"/>
       <c r="B307" s="3"/>
       <c r="C307" s="37" t="s">
@@ -42171,12 +42179,12 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="308" spans="1:64" ht="45">
+    <row r="308" spans="1:64" ht="28.8">
       <c r="A308" s="10"/>
       <c r="B308" s="3"/>
       <c r="C308" s="37"/>
       <c r="D308" s="14" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="E308" s="14" t="s">
         <v>2323</v>
@@ -42225,10 +42233,10 @@
       <c r="AK308" s="14"/>
       <c r="AL308" s="14"/>
       <c r="AM308" s="14" t="s">
+        <v>2655</v>
+      </c>
+      <c r="AN308" s="14" t="s">
         <v>2656</v>
-      </c>
-      <c r="AN308" s="14" t="s">
-        <v>2657</v>
       </c>
       <c r="AO308" s="42"/>
       <c r="AP308" s="42"/>
@@ -42255,7 +42263,7 @@
       <c r="BK308" s="62"/>
       <c r="BL308" s="42"/>
     </row>
-    <row r="309" spans="1:64" ht="45">
+    <row r="309" spans="1:64" ht="28.8">
       <c r="A309" s="10"/>
       <c r="B309" s="3"/>
       <c r="C309" s="37"/>
@@ -42315,10 +42323,10 @@
       <c r="AK309" s="14"/>
       <c r="AL309" s="14"/>
       <c r="AM309" s="14" t="s">
+        <v>2657</v>
+      </c>
+      <c r="AN309" s="14" t="s">
         <v>2658</v>
-      </c>
-      <c r="AN309" s="14" t="s">
-        <v>2659</v>
       </c>
       <c r="AO309" s="42"/>
       <c r="AP309" s="42"/>
@@ -42345,12 +42353,12 @@
       <c r="BK309" s="62"/>
       <c r="BL309" s="42"/>
     </row>
-    <row r="310" spans="1:64" ht="45">
+    <row r="310" spans="1:64" ht="28.8">
       <c r="A310" s="10"/>
       <c r="B310" s="3"/>
       <c r="C310" s="37"/>
       <c r="D310" s="14" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="E310" s="14" t="s">
         <v>2286</v>
@@ -42405,10 +42413,10 @@
       <c r="AK310" s="14"/>
       <c r="AL310" s="14"/>
       <c r="AM310" s="14" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AN310" s="14" t="s">
         <v>2661</v>
-      </c>
-      <c r="AN310" s="14" t="s">
-        <v>2662</v>
       </c>
       <c r="AO310" s="42"/>
       <c r="AP310" s="42"/>
@@ -42435,12 +42443,12 @@
       <c r="BK310" s="62"/>
       <c r="BL310" s="42"/>
     </row>
-    <row r="311" spans="1:64" ht="45">
+    <row r="311" spans="1:64" ht="28.8">
       <c r="A311" s="10"/>
       <c r="B311" s="3"/>
       <c r="C311" s="37"/>
       <c r="D311" s="14" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="E311" s="14" t="s">
         <v>2219</v>
@@ -42495,10 +42503,10 @@
       </c>
       <c r="AL311" s="14"/>
       <c r="AM311" s="14" t="s">
+        <v>2562</v>
+      </c>
+      <c r="AN311" s="14" t="s">
         <v>2563</v>
-      </c>
-      <c r="AN311" s="14" t="s">
-        <v>2564</v>
       </c>
       <c r="AO311" s="42"/>
       <c r="AP311" s="42"/>
@@ -42525,14 +42533,14 @@
       <c r="BK311" s="62"/>
       <c r="BL311" s="42"/>
     </row>
-    <row r="312" spans="1:64" ht="60">
+    <row r="312" spans="1:64" ht="43.2">
       <c r="A312" s="8"/>
       <c r="B312" s="4"/>
       <c r="C312" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>2283</v>
@@ -42585,10 +42593,10 @@
         <v>236</v>
       </c>
       <c r="AM312" s="21" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="AN312" s="5" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="AO312" s="5"/>
       <c r="AP312" s="5"/>
@@ -42615,7 +42623,7 @@
       <c r="BK312" s="33"/>
       <c r="BL312" s="33"/>
     </row>
-    <row r="313" spans="1:64" ht="45">
+    <row r="313" spans="1:64" ht="28.8">
       <c r="A313" s="10"/>
       <c r="B313" s="3"/>
       <c r="C313" s="37"/>
@@ -42669,10 +42677,10 @@
       <c r="AK313" s="14"/>
       <c r="AL313" s="14"/>
       <c r="AM313" s="14" t="s">
+        <v>2663</v>
+      </c>
+      <c r="AN313" s="14" t="s">
         <v>2664</v>
-      </c>
-      <c r="AN313" s="14" t="s">
-        <v>2665</v>
       </c>
       <c r="AO313" s="42"/>
       <c r="AP313" s="42"/>
@@ -42699,7 +42707,7 @@
       <c r="BK313" s="62"/>
       <c r="BL313" s="42"/>
     </row>
-    <row r="314" spans="1:64" ht="45">
+    <row r="314" spans="1:64" ht="28.8">
       <c r="A314" s="10"/>
       <c r="B314" s="3"/>
       <c r="C314" s="37"/>
@@ -42759,10 +42767,10 @@
       <c r="AK314" s="14"/>
       <c r="AL314" s="14"/>
       <c r="AM314" s="14" t="s">
+        <v>2665</v>
+      </c>
+      <c r="AN314" s="14" t="s">
         <v>2666</v>
-      </c>
-      <c r="AN314" s="14" t="s">
-        <v>2667</v>
       </c>
       <c r="AO314" s="42"/>
       <c r="AP314" s="42"/>
@@ -42789,7 +42797,7 @@
       <c r="BK314" s="62"/>
       <c r="BL314" s="42"/>
     </row>
-    <row r="315" spans="1:64" ht="60">
+    <row r="315" spans="1:64" ht="57.6">
       <c r="A315" s="8" t="b">
         <v>0</v>
       </c>
@@ -42850,7 +42858,7 @@
         <v>403</v>
       </c>
       <c r="AJ315" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="AK315" s="5"/>
       <c r="AL315" s="5" t="s">
@@ -42887,7 +42895,7 @@
       <c r="BK315" s="33"/>
       <c r="BL315" s="33"/>
     </row>
-    <row r="316" spans="1:64" ht="45">
+    <row r="316" spans="1:64" ht="28.8">
       <c r="A316" s="10"/>
       <c r="B316" s="3"/>
       <c r="C316" s="37"/>
@@ -42895,7 +42903,7 @@
         <v>2330</v>
       </c>
       <c r="E316" s="14" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="F316" s="14"/>
       <c r="G316" s="14"/>
@@ -42941,10 +42949,10 @@
       <c r="AK316" s="14"/>
       <c r="AL316" s="14"/>
       <c r="AM316" s="14" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AN316" s="14" t="s">
         <v>2669</v>
-      </c>
-      <c r="AN316" s="14" t="s">
-        <v>2670</v>
       </c>
       <c r="AO316" s="42"/>
       <c r="AP316" s="42"/>
@@ -42971,7 +42979,7 @@
       <c r="BK316" s="62"/>
       <c r="BL316" s="42"/>
     </row>
-    <row r="317" spans="1:64" ht="45">
+    <row r="317" spans="1:64" ht="28.8">
       <c r="A317" s="10"/>
       <c r="B317" s="3"/>
       <c r="C317" s="37"/>
@@ -43031,10 +43039,10 @@
       </c>
       <c r="AL317" s="14"/>
       <c r="AM317" s="14" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AN317" s="14" t="s">
         <v>2671</v>
-      </c>
-      <c r="AN317" s="14" t="s">
-        <v>2672</v>
       </c>
       <c r="AO317" s="42"/>
       <c r="AP317" s="42"/>
@@ -43061,7 +43069,7 @@
       <c r="BK317" s="62"/>
       <c r="BL317" s="42"/>
     </row>
-    <row r="318" spans="1:64" ht="45">
+    <row r="318" spans="1:64" ht="28.8">
       <c r="A318" s="10"/>
       <c r="B318" s="3"/>
       <c r="C318" s="37"/>
@@ -43141,7 +43149,7 @@
       <c r="BK318" s="62"/>
       <c r="BL318" s="42"/>
     </row>
-    <row r="319" spans="1:64" ht="75">
+    <row r="319" spans="1:64" ht="72">
       <c r="A319" s="10"/>
       <c r="B319" s="3"/>
       <c r="C319" s="37" t="s">
@@ -43247,7 +43255,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="320" spans="1:64" ht="45">
+    <row r="320" spans="1:64" ht="43.2">
       <c r="A320" s="7" t="b">
         <v>0</v>
       </c>
@@ -43351,7 +43359,7 @@
       <c r="BK320" s="33"/>
       <c r="BL320" s="33"/>
     </row>
-    <row r="321" spans="1:64" ht="45">
+    <row r="321" spans="1:64" ht="43.2">
       <c r="A321" s="7" t="b">
         <v>0</v>
       </c>
@@ -43449,7 +43457,7 @@
       <c r="BK321" s="33"/>
       <c r="BL321" s="33"/>
     </row>
-    <row r="322" spans="1:64" ht="45">
+    <row r="322" spans="1:64" ht="43.2">
       <c r="A322" s="10"/>
       <c r="B322" s="3"/>
       <c r="C322" s="37" t="s">
@@ -43541,7 +43549,7 @@
       <c r="BK322" s="33"/>
       <c r="BL322" s="33"/>
     </row>
-    <row r="323" spans="1:64" ht="45">
+    <row r="323" spans="1:64" ht="43.2">
       <c r="A323" s="10"/>
       <c r="B323" s="3"/>
       <c r="C323" s="37" t="s">
@@ -43603,10 +43611,10 @@
         <v>610</v>
       </c>
       <c r="AM323" s="14" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AN323" s="14" t="s">
         <v>2673</v>
-      </c>
-      <c r="AN323" s="14" t="s">
-        <v>2674</v>
       </c>
       <c r="AO323" s="14"/>
       <c r="AP323" s="14"/>
@@ -43633,7 +43641,7 @@
       <c r="BK323" s="33"/>
       <c r="BL323" s="33"/>
     </row>
-    <row r="324" spans="1:64" ht="45">
+    <row r="324" spans="1:64" ht="43.2">
       <c r="A324" s="7"/>
       <c r="B324" s="2"/>
       <c r="C324" s="13" t="s">
@@ -43725,7 +43733,7 @@
       <c r="BK324" s="33"/>
       <c r="BL324" s="33"/>
     </row>
-    <row r="325" spans="1:64" ht="45">
+    <row r="325" spans="1:64" ht="43.2">
       <c r="A325" s="7" t="b">
         <v>0</v>
       </c>
@@ -43823,7 +43831,7 @@
       <c r="BK325" s="33"/>
       <c r="BL325" s="33"/>
     </row>
-    <row r="326" spans="1:64" ht="135">
+    <row r="326" spans="1:64" ht="100.8">
       <c r="A326" s="7" t="b">
         <v>0</v>
       </c>
@@ -43969,7 +43977,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="327" spans="1:64" ht="60">
+    <row r="327" spans="1:64" ht="57.6">
       <c r="A327" s="8" t="b">
         <v>0</v>
       </c>
@@ -44063,7 +44071,7 @@
       <c r="BK327" s="33"/>
       <c r="BL327" s="33"/>
     </row>
-    <row r="328" spans="1:64" ht="60">
+    <row r="328" spans="1:64" ht="57.6">
       <c r="A328" s="7" t="b">
         <v>0</v>
       </c>
@@ -44221,7 +44229,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="329" spans="1:64" ht="45">
+    <row r="329" spans="1:64" ht="28.8">
       <c r="A329" s="10"/>
       <c r="B329" s="3"/>
       <c r="C329" s="37"/>
@@ -44275,10 +44283,10 @@
       <c r="AK329" s="14"/>
       <c r="AL329" s="14"/>
       <c r="AM329" s="14" t="s">
+        <v>2674</v>
+      </c>
+      <c r="AN329" s="14" t="s">
         <v>2675</v>
-      </c>
-      <c r="AN329" s="14" t="s">
-        <v>2676</v>
       </c>
       <c r="AO329" s="42"/>
       <c r="AP329" s="42"/>
@@ -44305,7 +44313,7 @@
       <c r="BK329" s="62"/>
       <c r="BL329" s="42"/>
     </row>
-    <row r="330" spans="1:64" ht="165">
+    <row r="330" spans="1:64" ht="129.6">
       <c r="A330" s="10"/>
       <c r="B330" s="3"/>
       <c r="C330" s="13" t="s">
@@ -44365,7 +44373,7 @@
         <v>1918</v>
       </c>
       <c r="Y330" s="73" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="Z330" s="14" t="s">
         <v>1921</v>
@@ -44459,7 +44467,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="331" spans="1:64" ht="45">
+    <row r="331" spans="1:64" ht="28.8">
       <c r="A331" s="10"/>
       <c r="B331" s="3"/>
       <c r="C331" s="37"/>
@@ -44517,10 +44525,10 @@
       <c r="AK331" s="14"/>
       <c r="AL331" s="14"/>
       <c r="AM331" s="14" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AN331" s="14" t="s">
         <v>2677</v>
-      </c>
-      <c r="AN331" s="14" t="s">
-        <v>2678</v>
       </c>
       <c r="AO331" s="42"/>
       <c r="AP331" s="42"/>
@@ -44547,7 +44555,7 @@
       <c r="BK331" s="62"/>
       <c r="BL331" s="42"/>
     </row>
-    <row r="332" spans="1:64" ht="45">
+    <row r="332" spans="1:64" ht="28.8">
       <c r="A332" s="10"/>
       <c r="B332" s="3"/>
       <c r="C332" s="37"/>
@@ -44605,10 +44613,10 @@
       <c r="AK332" s="14"/>
       <c r="AL332" s="14"/>
       <c r="AM332" s="14" t="s">
+        <v>2678</v>
+      </c>
+      <c r="AN332" s="14" t="s">
         <v>2679</v>
-      </c>
-      <c r="AN332" s="14" t="s">
-        <v>2680</v>
       </c>
       <c r="AO332" s="42"/>
       <c r="AP332" s="42"/>
@@ -44635,7 +44643,7 @@
       <c r="BK332" s="62"/>
       <c r="BL332" s="42"/>
     </row>
-    <row r="333" spans="1:64" ht="45">
+    <row r="333" spans="1:64" ht="28.8">
       <c r="A333" s="10"/>
       <c r="B333" s="3"/>
       <c r="C333" s="37"/>
@@ -44689,10 +44697,10 @@
       <c r="AK333" s="14"/>
       <c r="AL333" s="14"/>
       <c r="AM333" s="14" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AN333" s="14" t="s">
         <v>2681</v>
-      </c>
-      <c r="AN333" s="14" t="s">
-        <v>2682</v>
       </c>
       <c r="AO333" s="42"/>
       <c r="AP333" s="42"/>
@@ -44719,7 +44727,7 @@
       <c r="BK333" s="62"/>
       <c r="BL333" s="42"/>
     </row>
-    <row r="334" spans="1:64" ht="45">
+    <row r="334" spans="1:64" ht="43.2">
       <c r="A334" s="7" t="b">
         <v>0</v>
       </c>
@@ -44815,7 +44823,7 @@
       <c r="BK334" s="33"/>
       <c r="BL334" s="33"/>
     </row>
-    <row r="335" spans="1:64" ht="45">
+    <row r="335" spans="1:64" ht="43.2">
       <c r="A335" s="10"/>
       <c r="B335" s="3"/>
       <c r="C335" s="37" t="s">
@@ -44907,7 +44915,7 @@
       <c r="BK335" s="33"/>
       <c r="BL335" s="33"/>
     </row>
-    <row r="336" spans="1:64" ht="105">
+    <row r="336" spans="1:64" ht="72">
       <c r="A336" s="10"/>
       <c r="B336" s="3"/>
       <c r="C336" s="13" t="s">
@@ -45039,7 +45047,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="337" spans="1:64" ht="60">
+    <row r="337" spans="1:64" ht="57.6">
       <c r="A337" s="7" t="b">
         <v>0</v>
       </c>
@@ -45159,17 +45167,17 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="338" spans="1:64" ht="60">
+    <row r="338" spans="1:64" ht="57.6">
       <c r="A338" s="8"/>
       <c r="B338" s="4"/>
       <c r="C338" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D338" s="5" t="s">
+        <v>2451</v>
+      </c>
+      <c r="E338" s="5" t="s">
         <v>2452</v>
-      </c>
-      <c r="E338" s="5" t="s">
-        <v>2453</v>
       </c>
       <c r="F338" s="17"/>
       <c r="G338" s="5"/>
@@ -45195,7 +45203,7 @@
         <v>1511</v>
       </c>
       <c r="U338" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="V338" s="5"/>
       <c r="W338" s="17"/>
@@ -45221,10 +45229,10 @@
         <v>1233</v>
       </c>
       <c r="AM338" s="21" t="s">
+        <v>2454</v>
+      </c>
+      <c r="AN338" s="5" t="s">
         <v>2455</v>
-      </c>
-      <c r="AN338" s="5" t="s">
-        <v>2456</v>
       </c>
       <c r="AO338" s="5"/>
       <c r="AP338" s="5"/>
